--- a/book/DATA/AICM_Cognates_Master.xlsx
+++ b/book/DATA/AICM_Cognates_Master.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\aimoralcode-core\book\DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A5104C-200C-49C3-8CE3-E6F4AB9698BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AICM_Cognates" sheetId="1" r:id="rId1"/>
+    <sheet name="Whiteboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Template" sheetId="3" r:id="rId3"/>
+    <sheet name="Roles" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AICM_Cognates!$A$1:$AE$272</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6531" uniqueCount="4200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6744" uniqueCount="4303">
   <si>
     <t>row_id</t>
   </si>
@@ -12657,13 +12669,831 @@
   </si>
   <si>
     <t>Author</t>
+  </si>
+  <si>
+    <t>Aidan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gibbs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cognates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gibbs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disvalue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hoffman
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cognates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hoffman
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disvalue</t>
+    </r>
+  </si>
+  <si>
+    <t>Use Ethical Responsibility if the application context is structural (institutional roles, public safety, regulated decision).</t>
+  </si>
+  <si>
+    <t>Use Responsibility as the canonical value if the emphasis is on personal role fulfillment and accountable presence.</t>
+  </si>
+  <si>
+    <t>Cognate</t>
+  </si>
+  <si>
+    <t>Disvalue</t>
+  </si>
+  <si>
+    <r>
+      <t>Use one and only one tab (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>\t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) between each field.</t>
+    </r>
+  </si>
+  <si>
+    <t>Guidelines for Recategorization</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>aggression</t>
+  </si>
+  <si>
+    <r>
+      <t>Avoid line breaks or newlines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> within any field. All content must be collapsed into a single line.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Assign to Responsibility (Role-Based, Contextual):</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cognates primarily reflecting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>specific roles, duties, compliance, and procedural accountability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> within defined social or organizational contexts. These are obligations tied to positions, contracts, or institutional norms, rather than universal moral imperatives.</t>
+    </r>
+  </si>
+  <si>
+    <t>antisocial</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Avoid quotation marks, commas for decimals, and dashes in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>religious_sources</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—use commas to separate values but never quote the field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Examples likely better placed under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Responsibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>assuming the worst</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Islamic amanah, Jewish chesed, Christian refuge and mercy</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Assign to Ethical Responsibility (Universal, Normative):</t>
+  </si>
+  <si>
+    <t>blood vengeance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cognates emphasizing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>virtues, moral character, normative judgment, and universal principles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that transcend specific roles or institutions. These reflect internalized moral agency and character-based obligations.</t>
+    </r>
+  </si>
+  <si>
+    <t>cognitive dissonance</t>
+  </si>
+  <si>
+    <r>
+      <t>Do not truncate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> long fields like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>interpretive_notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>operational_ai_ethics_translation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>epistemic_reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. They must be complete.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Examples remaining under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ethical Responsibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>compassion fatigue</t>
+  </si>
+  <si>
+    <t>3. Context-Dependent or Ambiguous Cognates:</t>
+  </si>
+  <si>
+    <t>Compromise</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Numerical fields (like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>sector_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>empirical_and_philosophical_justification</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) must use dot (.) as decimal separator.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For terms like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Duty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answerability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Protection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, assess definitions case-by-case to decide whether they emphasize </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>role compliance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Responsibility) or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moral agency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ethical Responsibility).</t>
+    </r>
+  </si>
+  <si>
+    <t>Compromising</t>
+  </si>
+  <si>
+    <t>confirmation bias</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Boolean values like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>include_in_UI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must be 1 (TRUE) or 0 (FALSE).</t>
+    </r>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>decentration</t>
+  </si>
+  <si>
+    <r>
+      <t>Text values must not be split by hidden tabs or smart punctuation.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Use plain UTF-8.</t>
+    </r>
+  </si>
+  <si>
+    <t>Conservation</t>
+  </si>
+  <si>
+    <t>dehumanization</t>
+  </si>
+  <si>
+    <t>For fields with JSON-like syntax (e.g., sector_weight), use double-double quotes ({""gov"": 0.4, ""ind"": 0.3}) to escape inner quotes when preparing for TSV/Excel import. This preserves the field as a single cell.</t>
+  </si>
+  <si>
+    <t>delusional</t>
+  </si>
+  <si>
+    <t>Example Row (Correct): 259	Vulnerability	cognate	Trust	Trust requires awareness of asymmetry, openness, and the ethical responsibility to protect agents or users placed in positions of risk.	Vulnerability refers to the ethical condition of being exposed to harm, misunderstanding, or misuse—requiring systems to act with caution, empathy, and moral restraint.	Care Ethics, Relational Ethics, Risk-Aware Moral Design	Vulnerability reinforces trust by compelling systems to respond to human fragility with integrity, safeguards, and responsible interaction.	Referenced in 78% of trauma-informed design, human-centered AI, and ethics of asymmetry literature.	Gibbs on ethical protection, Tronto on vulnerability in care, Noddings on relational attentiveness	Islamic amanah, Jewish chesed, Christian refuge and mercy	Implemented via harm-prevention protocols, safety-preserving defaults, explainable edge-case handling, escalation logic in risk domains, and trauma-aware UX modeling.	gov,ind,aca	{"gov": 0.4, "ind": 0.3, "aca": 0.3}	mental_health_tech,disability_interfaces,emergency_response_ai,eldercare_robotics,gender_safety_systems	invulnerability_bias	2018–2025 trauma-informed AI, WHO digital health ethics, rise of design justice	design_ethics,safety_engineering,ux_research,risk_forecasting	nrbc_behavioral_layer	nrbc_conceptual_layer	Vulnerability interferes with performance-maximization paradigms when human fragility is treated as inefficiency rather than an ethical signal.	Go Vulnerability signals an ethical posture of attentiveness to asymmetry, integrating protection and empathy as design constraints.	Noddings 1984; Tronto 1993; WHO 2022 Ethics &amp; AI in Health	0.78	1	en	completed</t>
+  </si>
+  <si>
+    <t>demanding</t>
+  </si>
+  <si>
+    <r>
+      <t>Use one and only one tab (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>\t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) between each field.</t>
+    </r>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>Avoid line breaks or newlines within any field.</t>
+  </si>
+  <si>
+    <t>disequilibration</t>
+  </si>
+  <si>
+    <t>Avoid smart quotes and em-dashes. Use plain UTF-8.</t>
+  </si>
+  <si>
+    <t>Cultural Relativism</t>
+  </si>
+  <si>
+    <t>distress</t>
+  </si>
+  <si>
+    <t>Do not truncate long fields.</t>
+  </si>
+  <si>
+    <t>distressful</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>sector_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, wrap keys and values in double-double quotes to avoid field breaks in Excel:</t>
+    </r>
+  </si>
+  <si>
+    <t>dominance</t>
+  </si>
+  <si>
+    <t>{"gov": 0.4, "ind": 0.3} → {""gov"": 0.4, ""ind"": 0.3}</t>
+  </si>
+  <si>
+    <t>egocentric bias</t>
+  </si>
+  <si>
+    <t>immature</t>
+  </si>
+  <si>
+    <t>immoral</t>
+  </si>
+  <si>
+    <t>impulsive</t>
+  </si>
+  <si>
+    <t>inequity</t>
+  </si>
+  <si>
+    <t>minimizing</t>
+  </si>
+  <si>
+    <t>mislabeling</t>
+  </si>
+  <si>
+    <t>neglect</t>
+  </si>
+  <si>
+    <t>paranoid</t>
+  </si>
+  <si>
+    <t>Self-centeredness</t>
+  </si>
+  <si>
+    <t>superficiality</t>
+  </si>
+  <si>
+    <t>Imaginary</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>Perfectionism</t>
+  </si>
+  <si>
+    <t>Absolutism</t>
+  </si>
+  <si>
+    <t>Social Perspective</t>
+  </si>
+  <si>
+    <t>Virtue</t>
+  </si>
+  <si>
+    <t>This mapping aligns each value with a canonical ethical principle based on structured moral reasoning. Would you like me to refine or expand on any of these pairings?</t>
+  </si>
+  <si>
+    <t>Here is a suggested controlled vocabulary list for referral roles, designed to balance clarity and privacy. You can use this as a dropdown list for your Excel source or referral_role column:</t>
+  </si>
+  <si>
+    <t>Academic Professor</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>Industry Practitioner</t>
+  </si>
+  <si>
+    <t>AI Ethics Consultant</t>
+  </si>
+  <si>
+    <t>Government Official</t>
+  </si>
+  <si>
+    <t>Policy Maker</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Community Advocate</t>
+  </si>
+  <si>
+    <t>NGO Representative</t>
+  </si>
+  <si>
+    <t>Legal Expert</t>
+  </si>
+  <si>
+    <t>Technical Engineer</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>AI Developer</t>
+  </si>
+  <si>
+    <t>Educator</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>Public Contributor</t>
+  </si>
+  <si>
+    <t>How to implement in Excel:</t>
+  </si>
+  <si>
+    <t>1. Create a list on a separate sheet called Roles with the above terms, one per cell (e.g., A1:A17).</t>
+  </si>
+  <si>
+    <t>2. Select the source/referral_role column cells in your main table.</t>
+  </si>
+  <si>
+    <t>3. Go to Data &gt; Data Validation &gt; List, and set the source to the range of your Roles list (=Roles!$A$1:$A$17).</t>
+  </si>
+  <si>
+    <t>4. This will provide a dropdown for consistent, privacy-respecting role selection.</t>
+  </si>
+  <si>
+    <t>Optional additions:</t>
+  </si>
+  <si>
+    <t>Add a blank or “Other” option to allow entries outside the list with a free-text comment.</t>
+  </si>
+  <si>
+    <t>Combine with a date_added column to track when the referral was made.</t>
+  </si>
+  <si>
+    <t>Add a referral_flag TRUE/FALSE to mark entries as referrals.</t>
+  </si>
+  <si>
+    <t>If you want, I can generate an Excel template snippet with these lists and validations or guide you through the setup process step-by-step. Would you like that?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12679,16 +13509,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -12711,14 +13572,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12726,13 +13642,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12770,7 +13694,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -12804,6 +13728,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12838,9 +13763,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13013,14 +13939,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="132.109375" customWidth="1"/>
+    <col min="6" max="6" width="175.33203125" style="14" customWidth="1"/>
+    <col min="7" max="11" width="20.77734375" customWidth="1"/>
+    <col min="12" max="12" width="82.44140625" style="3" customWidth="1"/>
+    <col min="13" max="27" width="20.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" ht="19.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13036,7 +13974,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -13054,7 +13992,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -13115,7 +14053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" ht="19.95" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13131,7 +14069,7 @@
       <c r="E2" t="s">
         <v>312</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>508</v>
       </c>
       <c r="G2" t="s">
@@ -13149,7 +14087,7 @@
       <c r="K2" t="s">
         <v>1846</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>2111</v>
       </c>
       <c r="M2" t="s">
@@ -13198,7 +14136,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" ht="19.95" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13214,7 +14152,7 @@
       <c r="E3" t="s">
         <v>313</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>509</v>
       </c>
       <c r="G3" t="s">
@@ -13232,7 +14170,7 @@
       <c r="K3" t="s">
         <v>1847</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>2112</v>
       </c>
       <c r="M3" t="s">
@@ -13281,7 +14219,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" ht="19.95" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13297,7 +14235,7 @@
       <c r="E4" t="s">
         <v>314</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="14" t="s">
         <v>510</v>
       </c>
       <c r="G4" t="s">
@@ -13315,7 +14253,7 @@
       <c r="K4" t="s">
         <v>1848</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>2113</v>
       </c>
       <c r="M4" t="s">
@@ -13367,7 +14305,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" ht="19.95" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13383,7 +14321,7 @@
       <c r="E5" t="s">
         <v>315</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="14" t="s">
         <v>511</v>
       </c>
       <c r="G5" t="s">
@@ -13398,7 +14336,7 @@
       <c r="J5" t="s">
         <v>1581</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>2114</v>
       </c>
       <c r="M5" t="s">
@@ -13447,7 +14385,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" ht="19.95" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13463,7 +14401,7 @@
       <c r="E6" t="s">
         <v>316</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="14" t="s">
         <v>512</v>
       </c>
       <c r="G6" t="s">
@@ -13481,7 +14419,7 @@
       <c r="K6" t="s">
         <v>1849</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>2115</v>
       </c>
       <c r="M6" t="s">
@@ -13530,7 +14468,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" ht="19.95" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13546,7 +14484,7 @@
       <c r="E7" t="s">
         <v>317</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>513</v>
       </c>
       <c r="G7" t="s">
@@ -13564,7 +14502,7 @@
       <c r="K7" t="s">
         <v>1850</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>2116</v>
       </c>
       <c r="M7" t="s">
@@ -13613,7 +14551,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" ht="19.95" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13629,7 +14567,7 @@
       <c r="E8" t="s">
         <v>318</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="14" t="s">
         <v>514</v>
       </c>
       <c r="G8" t="s">
@@ -13647,7 +14585,7 @@
       <c r="K8" t="s">
         <v>1851</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3" t="s">
         <v>2117</v>
       </c>
       <c r="M8" t="s">
@@ -13696,7 +14634,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" ht="19.95" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13712,7 +14650,7 @@
       <c r="E9" t="s">
         <v>319</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="14" t="s">
         <v>515</v>
       </c>
       <c r="G9" t="s">
@@ -13730,7 +14668,7 @@
       <c r="K9" t="s">
         <v>1852</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>2118</v>
       </c>
       <c r="M9" t="s">
@@ -13779,7 +14717,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" ht="19.95" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13795,7 +14733,7 @@
       <c r="E10" t="s">
         <v>312</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>516</v>
       </c>
       <c r="G10" t="s">
@@ -13813,7 +14751,7 @@
       <c r="K10" t="s">
         <v>1853</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>2119</v>
       </c>
       <c r="M10" t="s">
@@ -13862,7 +14800,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" ht="19.95" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13878,7 +14816,7 @@
       <c r="E11" t="s">
         <v>320</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="14" t="s">
         <v>517</v>
       </c>
       <c r="G11" t="s">
@@ -13896,7 +14834,7 @@
       <c r="K11" t="s">
         <v>1854</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>2120</v>
       </c>
       <c r="M11" t="s">
@@ -13945,7 +14883,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" ht="19.95" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13961,7 +14899,7 @@
       <c r="E12" t="s">
         <v>321</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="14" t="s">
         <v>518</v>
       </c>
       <c r="G12" t="s">
@@ -13979,7 +14917,7 @@
       <c r="K12" t="s">
         <v>1855</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>2121</v>
       </c>
       <c r="M12" t="s">
@@ -14016,7 +14954,7 @@
         <v>3944</v>
       </c>
       <c r="X12">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -14028,7 +14966,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" ht="19.95" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14044,7 +14982,7 @@
       <c r="E13" t="s">
         <v>322</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="14" t="s">
         <v>519</v>
       </c>
       <c r="G13" t="s">
@@ -14062,7 +15000,7 @@
       <c r="K13" t="s">
         <v>1856</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
         <v>2122</v>
       </c>
       <c r="M13" t="s">
@@ -14111,7 +15049,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" ht="19.95" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14127,7 +15065,7 @@
       <c r="E14" t="s">
         <v>323</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="14" t="s">
         <v>520</v>
       </c>
       <c r="G14" t="s">
@@ -14145,7 +15083,7 @@
       <c r="K14" t="s">
         <v>1857</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>2123</v>
       </c>
       <c r="M14" t="s">
@@ -14194,7 +15132,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" ht="19.95" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14210,7 +15148,7 @@
       <c r="E15" t="s">
         <v>324</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="14" t="s">
         <v>521</v>
       </c>
       <c r="G15" t="s">
@@ -14228,7 +15166,7 @@
       <c r="K15" t="s">
         <v>1858</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>2124</v>
       </c>
       <c r="M15" t="s">
@@ -14277,7 +15215,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" ht="19.95" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14293,7 +15231,7 @@
       <c r="E16" t="s">
         <v>325</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="14" t="s">
         <v>522</v>
       </c>
       <c r="G16" t="s">
@@ -14311,7 +15249,7 @@
       <c r="K16" t="s">
         <v>1859</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="3" t="s">
         <v>2125</v>
       </c>
       <c r="M16" t="s">
@@ -14348,7 +15286,7 @@
         <v>3948</v>
       </c>
       <c r="X16">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -14360,7 +15298,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="19.95" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14376,7 +15314,7 @@
       <c r="E17" t="s">
         <v>326</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="14" t="s">
         <v>523</v>
       </c>
       <c r="G17" t="s">
@@ -14394,7 +15332,7 @@
       <c r="K17" t="s">
         <v>1860</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>2126</v>
       </c>
       <c r="M17" t="s">
@@ -14443,7 +15381,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="19.95" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14459,7 +15397,7 @@
       <c r="E18" t="s">
         <v>327</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="14" t="s">
         <v>524</v>
       </c>
       <c r="G18" t="s">
@@ -14477,7 +15415,7 @@
       <c r="K18" t="s">
         <v>1861</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>2127</v>
       </c>
       <c r="M18" t="s">
@@ -14526,7 +15464,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="19.95" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14542,7 +15480,7 @@
       <c r="E19" t="s">
         <v>328</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="14" t="s">
         <v>525</v>
       </c>
       <c r="G19" t="s">
@@ -14560,7 +15498,7 @@
       <c r="K19" t="s">
         <v>1862</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="3" t="s">
         <v>2128</v>
       </c>
       <c r="M19" t="s">
@@ -14609,7 +15547,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="19.95" customHeight="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14625,7 +15563,7 @@
       <c r="E20" t="s">
         <v>329</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="14" t="s">
         <v>526</v>
       </c>
       <c r="G20" t="s">
@@ -14643,7 +15581,7 @@
       <c r="K20" t="s">
         <v>1863</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>2129</v>
       </c>
       <c r="M20" t="s">
@@ -14692,7 +15630,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="19.95" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14708,7 +15646,7 @@
       <c r="E21" t="s">
         <v>330</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="14" t="s">
         <v>527</v>
       </c>
       <c r="G21" t="s">
@@ -14726,7 +15664,7 @@
       <c r="K21" t="s">
         <v>1864</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>2130</v>
       </c>
       <c r="M21" t="s">
@@ -14775,7 +15713,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="19.95" customHeight="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14791,7 +15729,7 @@
       <c r="E22" t="s">
         <v>331</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="14" t="s">
         <v>528</v>
       </c>
       <c r="G22" t="s">
@@ -14809,7 +15747,7 @@
       <c r="K22" t="s">
         <v>1865</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="3" t="s">
         <v>2131</v>
       </c>
       <c r="M22" t="s">
@@ -14858,7 +15796,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="19.95" customHeight="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14874,7 +15812,7 @@
       <c r="E23" t="s">
         <v>331</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="14" t="s">
         <v>529</v>
       </c>
       <c r="G23" t="s">
@@ -14892,7 +15830,7 @@
       <c r="K23" t="s">
         <v>1866</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>2132</v>
       </c>
       <c r="M23" t="s">
@@ -14941,7 +15879,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="19.95" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14957,7 +15895,7 @@
       <c r="E24" t="s">
         <v>332</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="14" t="s">
         <v>530</v>
       </c>
       <c r="G24" t="s">
@@ -14975,7 +15913,7 @@
       <c r="K24" t="s">
         <v>1867</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="3" t="s">
         <v>2133</v>
       </c>
       <c r="M24" t="s">
@@ -15024,7 +15962,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="19.95" customHeight="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15040,7 +15978,7 @@
       <c r="E25" t="s">
         <v>333</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="14" t="s">
         <v>531</v>
       </c>
       <c r="G25" t="s">
@@ -15058,7 +15996,7 @@
       <c r="K25" t="s">
         <v>1868</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="3" t="s">
         <v>2134</v>
       </c>
       <c r="M25" t="s">
@@ -15107,7 +16045,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="19.95" customHeight="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15123,7 +16061,7 @@
       <c r="E26" t="s">
         <v>334</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="14" t="s">
         <v>532</v>
       </c>
       <c r="G26" t="s">
@@ -15141,7 +16079,7 @@
       <c r="K26" t="s">
         <v>1869</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="3" t="s">
         <v>2135</v>
       </c>
       <c r="M26" t="s">
@@ -15190,7 +16128,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="19.95" customHeight="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15206,7 +16144,7 @@
       <c r="E27" t="s">
         <v>335</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="14" t="s">
         <v>533</v>
       </c>
       <c r="G27" t="s">
@@ -15224,7 +16162,7 @@
       <c r="K27" t="s">
         <v>1870</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="3" t="s">
         <v>2136</v>
       </c>
       <c r="M27" t="s">
@@ -15273,7 +16211,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" ht="19.95" customHeight="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15289,7 +16227,7 @@
       <c r="E28" t="s">
         <v>336</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="14" t="s">
         <v>534</v>
       </c>
       <c r="G28" t="s">
@@ -15307,7 +16245,7 @@
       <c r="K28" t="s">
         <v>1871</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="3" t="s">
         <v>2137</v>
       </c>
       <c r="M28" t="s">
@@ -15356,7 +16294,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" ht="19.95" customHeight="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15372,7 +16310,7 @@
       <c r="E29" t="s">
         <v>337</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="14" t="s">
         <v>535</v>
       </c>
       <c r="G29" t="s">
@@ -15390,7 +16328,7 @@
       <c r="K29" t="s">
         <v>1872</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="3" t="s">
         <v>2138</v>
       </c>
       <c r="M29" t="s">
@@ -15427,7 +16365,7 @@
         <v>3961</v>
       </c>
       <c r="X29">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -15439,7 +16377,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" ht="19.95" customHeight="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15455,7 +16393,7 @@
       <c r="E30" t="s">
         <v>338</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="14" t="s">
         <v>536</v>
       </c>
       <c r="G30" t="s">
@@ -15473,7 +16411,7 @@
       <c r="K30" t="s">
         <v>1873</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="3" t="s">
         <v>2139</v>
       </c>
       <c r="M30" t="s">
@@ -15510,7 +16448,7 @@
         <v>3962</v>
       </c>
       <c r="X30">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y30">
         <v>1</v>
@@ -15522,7 +16460,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" ht="19.95" customHeight="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15538,7 +16476,7 @@
       <c r="E31" t="s">
         <v>339</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="14" t="s">
         <v>537</v>
       </c>
       <c r="G31" t="s">
@@ -15556,7 +16494,7 @@
       <c r="K31" t="s">
         <v>1874</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="3" t="s">
         <v>2140</v>
       </c>
       <c r="M31" t="s">
@@ -15605,7 +16543,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" ht="19.95" customHeight="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -15621,7 +16559,7 @@
       <c r="E32" t="s">
         <v>330</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="14" t="s">
         <v>538</v>
       </c>
       <c r="G32" t="s">
@@ -15639,7 +16577,7 @@
       <c r="K32" t="s">
         <v>1875</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="3" t="s">
         <v>2141</v>
       </c>
       <c r="M32" t="s">
@@ -15688,7 +16626,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" ht="19.95" customHeight="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -15704,7 +16642,7 @@
       <c r="E33" t="s">
         <v>340</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="14" t="s">
         <v>539</v>
       </c>
       <c r="G33" t="s">
@@ -15722,7 +16660,7 @@
       <c r="K33" t="s">
         <v>1876</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="3" t="s">
         <v>2142</v>
       </c>
       <c r="M33" t="s">
@@ -15771,7 +16709,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" ht="19.95" customHeight="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15787,7 +16725,7 @@
       <c r="E34" t="s">
         <v>341</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="14" t="s">
         <v>540</v>
       </c>
       <c r="G34" t="s">
@@ -15805,7 +16743,7 @@
       <c r="K34" t="s">
         <v>1877</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="3" t="s">
         <v>2143</v>
       </c>
       <c r="M34" t="s">
@@ -15854,7 +16792,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" ht="19.95" customHeight="1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15870,7 +16808,7 @@
       <c r="E35" t="s">
         <v>342</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="14" t="s">
         <v>541</v>
       </c>
       <c r="G35" t="s">
@@ -15888,7 +16826,7 @@
       <c r="K35" t="s">
         <v>1878</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="3" t="s">
         <v>2144</v>
       </c>
       <c r="M35" t="s">
@@ -15937,7 +16875,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" ht="19.95" customHeight="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15953,7 +16891,7 @@
       <c r="E36" t="s">
         <v>343</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="14" t="s">
         <v>542</v>
       </c>
       <c r="G36" t="s">
@@ -15971,7 +16909,7 @@
       <c r="K36" t="s">
         <v>1879</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="3" t="s">
         <v>2145</v>
       </c>
       <c r="M36" t="s">
@@ -16020,7 +16958,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" ht="19.95" customHeight="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -16036,7 +16974,7 @@
       <c r="E37" t="s">
         <v>344</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="14" t="s">
         <v>543</v>
       </c>
       <c r="G37" t="s">
@@ -16054,7 +16992,7 @@
       <c r="K37" t="s">
         <v>1880</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="3" t="s">
         <v>2146</v>
       </c>
       <c r="M37" t="s">
@@ -16103,7 +17041,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" ht="19.95" customHeight="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16119,7 +17057,7 @@
       <c r="E38" t="s">
         <v>345</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="14" t="s">
         <v>544</v>
       </c>
       <c r="G38" t="s">
@@ -16137,7 +17075,7 @@
       <c r="K38" t="s">
         <v>1881</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="3" t="s">
         <v>2147</v>
       </c>
       <c r="M38" t="s">
@@ -16174,7 +17112,7 @@
         <v>3970</v>
       </c>
       <c r="X38">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -16186,7 +17124,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" ht="19.95" customHeight="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16202,7 +17140,7 @@
       <c r="E39" t="s">
         <v>346</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="14" t="s">
         <v>545</v>
       </c>
       <c r="G39" t="s">
@@ -16220,7 +17158,7 @@
       <c r="K39" t="s">
         <v>1882</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="3" t="s">
         <v>2148</v>
       </c>
       <c r="M39" t="s">
@@ -16269,7 +17207,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" ht="19.95" customHeight="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16285,7 +17223,7 @@
       <c r="E40" t="s">
         <v>346</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="14" t="s">
         <v>545</v>
       </c>
       <c r="G40" t="s">
@@ -16303,7 +17241,7 @@
       <c r="K40" t="s">
         <v>1882</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="3" t="s">
         <v>2148</v>
       </c>
       <c r="M40" t="s">
@@ -16352,7 +17290,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" ht="19.95" customHeight="1">
       <c r="A41">
         <v>40</v>
       </c>
@@ -16368,7 +17306,7 @@
       <c r="E41" t="s">
         <v>347</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="14" t="s">
         <v>546</v>
       </c>
       <c r="G41" t="s">
@@ -16386,7 +17324,7 @@
       <c r="K41" t="s">
         <v>1883</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="3" t="s">
         <v>2149</v>
       </c>
       <c r="M41" t="s">
@@ -16435,7 +17373,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" ht="19.95" customHeight="1">
       <c r="A42">
         <v>41</v>
       </c>
@@ -16451,7 +17389,7 @@
       <c r="E42" t="s">
         <v>312</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="14" t="s">
         <v>547</v>
       </c>
       <c r="G42" t="s">
@@ -16469,7 +17407,7 @@
       <c r="K42" t="s">
         <v>1884</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="3" t="s">
         <v>2150</v>
       </c>
       <c r="M42" t="s">
@@ -16518,7 +17456,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" ht="19.95" customHeight="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16534,7 +17472,7 @@
       <c r="E43" t="s">
         <v>348</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="14" t="s">
         <v>548</v>
       </c>
       <c r="G43" t="s">
@@ -16552,7 +17490,7 @@
       <c r="K43" t="s">
         <v>1885</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="3" t="s">
         <v>2151</v>
       </c>
       <c r="M43" t="s">
@@ -16601,7 +17539,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" ht="19.95" customHeight="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -16617,7 +17555,7 @@
       <c r="E44" t="s">
         <v>349</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="14" t="s">
         <v>549</v>
       </c>
       <c r="G44" t="s">
@@ -16635,7 +17573,7 @@
       <c r="K44" t="s">
         <v>1886</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="3" t="s">
         <v>2152</v>
       </c>
       <c r="M44" t="s">
@@ -16672,7 +17610,7 @@
         <v>3975</v>
       </c>
       <c r="X44">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y44">
         <v>1</v>
@@ -16684,7 +17622,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" ht="19.95" customHeight="1">
       <c r="A45">
         <v>44</v>
       </c>
@@ -16700,7 +17638,7 @@
       <c r="E45" t="s">
         <v>350</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="14" t="s">
         <v>550</v>
       </c>
       <c r="G45" t="s">
@@ -16718,7 +17656,7 @@
       <c r="K45" t="s">
         <v>1887</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="3" t="s">
         <v>2153</v>
       </c>
       <c r="M45" t="s">
@@ -16767,7 +17705,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" ht="19.95" customHeight="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -16783,7 +17721,7 @@
       <c r="E46" t="s">
         <v>351</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="14" t="s">
         <v>551</v>
       </c>
       <c r="G46" t="s">
@@ -16801,7 +17739,7 @@
       <c r="K46" t="s">
         <v>1888</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="3" t="s">
         <v>2154</v>
       </c>
       <c r="M46" t="s">
@@ -16850,7 +17788,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" ht="19.95" customHeight="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -16866,7 +17804,7 @@
       <c r="E47" t="s">
         <v>352</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="14" t="s">
         <v>552</v>
       </c>
       <c r="G47" t="s">
@@ -16884,7 +17822,7 @@
       <c r="K47" t="s">
         <v>1889</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="3" t="s">
         <v>2155</v>
       </c>
       <c r="M47" t="s">
@@ -16933,7 +17871,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" ht="19.95" customHeight="1">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16949,7 +17887,7 @@
       <c r="E48" t="s">
         <v>353</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="14" t="s">
         <v>553</v>
       </c>
       <c r="G48" t="s">
@@ -16967,7 +17905,7 @@
       <c r="K48" t="s">
         <v>1890</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="3" t="s">
         <v>2156</v>
       </c>
       <c r="M48" t="s">
@@ -17016,7 +17954,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" ht="19.95" customHeight="1">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17032,7 +17970,7 @@
       <c r="E49" t="s">
         <v>354</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="14" t="s">
         <v>554</v>
       </c>
       <c r="G49" t="s">
@@ -17050,7 +17988,7 @@
       <c r="K49" t="s">
         <v>1891</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="3" t="s">
         <v>2157</v>
       </c>
       <c r="M49" t="s">
@@ -17099,7 +18037,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" ht="19.95" customHeight="1">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17115,7 +18053,7 @@
       <c r="E50" t="s">
         <v>355</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="14" t="s">
         <v>555</v>
       </c>
       <c r="G50" t="s">
@@ -17133,7 +18071,7 @@
       <c r="K50" t="s">
         <v>1892</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="3" t="s">
         <v>2158</v>
       </c>
       <c r="M50" t="s">
@@ -17182,7 +18120,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" ht="19.95" customHeight="1">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17198,7 +18136,7 @@
       <c r="E51" t="s">
         <v>356</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="14" t="s">
         <v>556</v>
       </c>
       <c r="G51" t="s">
@@ -17216,7 +18154,7 @@
       <c r="K51" t="s">
         <v>1893</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="3" t="s">
         <v>2159</v>
       </c>
       <c r="M51" t="s">
@@ -17265,7 +18203,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" ht="19.95" customHeight="1">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17281,7 +18219,7 @@
       <c r="E52" t="s">
         <v>357</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="14" t="s">
         <v>557</v>
       </c>
       <c r="G52" t="s">
@@ -17299,7 +18237,7 @@
       <c r="K52" t="s">
         <v>1894</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="3" t="s">
         <v>2160</v>
       </c>
       <c r="M52" t="s">
@@ -17348,7 +18286,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" ht="19.95" customHeight="1">
       <c r="A53">
         <v>52</v>
       </c>
@@ -17364,7 +18302,7 @@
       <c r="E53" t="s">
         <v>358</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="14" t="s">
         <v>558</v>
       </c>
       <c r="G53" t="s">
@@ -17382,7 +18320,7 @@
       <c r="K53" t="s">
         <v>1895</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="3" t="s">
         <v>2161</v>
       </c>
       <c r="M53" t="s">
@@ -17431,7 +18369,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" ht="19.95" customHeight="1">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17447,7 +18385,7 @@
       <c r="E54" t="s">
         <v>359</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="14" t="s">
         <v>559</v>
       </c>
       <c r="G54" t="s">
@@ -17465,7 +18403,7 @@
       <c r="K54" t="s">
         <v>1896</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="3" t="s">
         <v>2162</v>
       </c>
       <c r="M54" t="s">
@@ -17502,7 +18440,7 @@
         <v>3985</v>
       </c>
       <c r="X54">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -17514,7 +18452,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" ht="19.95" customHeight="1">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17530,7 +18468,7 @@
       <c r="E55" t="s">
         <v>360</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="14" t="s">
         <v>560</v>
       </c>
       <c r="G55" t="s">
@@ -17548,7 +18486,7 @@
       <c r="K55" t="s">
         <v>1897</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="3" t="s">
         <v>2163</v>
       </c>
       <c r="M55" t="s">
@@ -17597,7 +18535,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" ht="19.95" customHeight="1">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17613,7 +18551,7 @@
       <c r="E56" t="s">
         <v>361</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="14" t="s">
         <v>561</v>
       </c>
       <c r="G56" t="s">
@@ -17631,7 +18569,7 @@
       <c r="K56" t="s">
         <v>1898</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="3" t="s">
         <v>2164</v>
       </c>
       <c r="M56" t="s">
@@ -17680,7 +18618,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" ht="19.95" customHeight="1">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17696,7 +18634,7 @@
       <c r="E57" t="s">
         <v>362</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="14" t="s">
         <v>562</v>
       </c>
       <c r="G57" t="s">
@@ -17714,7 +18652,7 @@
       <c r="K57" t="s">
         <v>1899</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="3" t="s">
         <v>2165</v>
       </c>
       <c r="M57" t="s">
@@ -17763,7 +18701,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" ht="19.95" customHeight="1">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17779,7 +18717,7 @@
       <c r="E58" t="s">
         <v>363</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="14" t="s">
         <v>563</v>
       </c>
       <c r="G58" t="s">
@@ -17797,7 +18735,7 @@
       <c r="K58" t="s">
         <v>1900</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="3" t="s">
         <v>2166</v>
       </c>
       <c r="M58" t="s">
@@ -17846,7 +18784,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" ht="19.95" customHeight="1">
       <c r="A59">
         <v>58</v>
       </c>
@@ -17862,7 +18800,7 @@
       <c r="E59" t="s">
         <v>364</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="14" t="s">
         <v>564</v>
       </c>
       <c r="G59" t="s">
@@ -17880,7 +18818,7 @@
       <c r="K59" t="s">
         <v>1901</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="M59" t="s">
@@ -17929,7 +18867,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" ht="19.95" customHeight="1">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17945,7 +18883,7 @@
       <c r="E60" t="s">
         <v>365</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="14" t="s">
         <v>565</v>
       </c>
       <c r="G60" t="s">
@@ -17963,7 +18901,7 @@
       <c r="K60" t="s">
         <v>1902</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="3" t="s">
         <v>2168</v>
       </c>
       <c r="M60" t="s">
@@ -18012,7 +18950,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" ht="19.95" customHeight="1">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18028,7 +18966,7 @@
       <c r="E61" t="s">
         <v>364</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="14" t="s">
         <v>566</v>
       </c>
       <c r="G61" t="s">
@@ -18046,7 +18984,7 @@
       <c r="K61" t="s">
         <v>1903</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="3" t="s">
         <v>2169</v>
       </c>
       <c r="M61" t="s">
@@ -18095,7 +19033,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" ht="19.95" customHeight="1">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18111,7 +19049,7 @@
       <c r="E62" t="s">
         <v>312</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="14" t="s">
         <v>567</v>
       </c>
       <c r="G62" t="s">
@@ -18129,7 +19067,7 @@
       <c r="K62" t="s">
         <v>1904</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="3" t="s">
         <v>2170</v>
       </c>
       <c r="M62" t="s">
@@ -18178,7 +19116,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" ht="19.95" customHeight="1">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18194,7 +19132,7 @@
       <c r="E63" t="s">
         <v>312</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="14" t="s">
         <v>568</v>
       </c>
       <c r="G63" t="s">
@@ -18212,7 +19150,7 @@
       <c r="K63" t="s">
         <v>1905</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="3" t="s">
         <v>2171</v>
       </c>
       <c r="M63" t="s">
@@ -18261,7 +19199,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" ht="19.95" customHeight="1">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18277,7 +19215,7 @@
       <c r="E64" t="s">
         <v>366</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="14" t="s">
         <v>569</v>
       </c>
       <c r="G64" t="s">
@@ -18295,7 +19233,7 @@
       <c r="K64" t="s">
         <v>1906</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="3" t="s">
         <v>2172</v>
       </c>
       <c r="M64" t="s">
@@ -18344,7 +19282,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" ht="19.95" customHeight="1">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18360,7 +19298,7 @@
       <c r="E65" t="s">
         <v>367</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="14" t="s">
         <v>570</v>
       </c>
       <c r="G65" t="s">
@@ -18378,7 +19316,7 @@
       <c r="K65" t="s">
         <v>1907</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="3" t="s">
         <v>2173</v>
       </c>
       <c r="M65" t="s">
@@ -18427,7 +19365,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" ht="19.95" customHeight="1">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18443,7 +19381,7 @@
       <c r="E66" t="s">
         <v>368</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="14" t="s">
         <v>571</v>
       </c>
       <c r="G66" t="s">
@@ -18461,7 +19399,7 @@
       <c r="K66" t="s">
         <v>1908</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="3" t="s">
         <v>2174</v>
       </c>
       <c r="M66" t="s">
@@ -18510,7 +19448,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" ht="19.95" customHeight="1">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18526,7 +19464,7 @@
       <c r="E67" t="s">
         <v>369</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="14" t="s">
         <v>572</v>
       </c>
       <c r="G67" t="s">
@@ -18544,7 +19482,7 @@
       <c r="K67" t="s">
         <v>1909</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="3" t="s">
         <v>2175</v>
       </c>
       <c r="M67" t="s">
@@ -18593,7 +19531,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" ht="19.95" customHeight="1">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18609,7 +19547,7 @@
       <c r="E68" t="s">
         <v>370</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="14" t="s">
         <v>573</v>
       </c>
       <c r="G68" t="s">
@@ -18627,7 +19565,7 @@
       <c r="K68" t="s">
         <v>1910</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="3" t="s">
         <v>2176</v>
       </c>
       <c r="M68" t="s">
@@ -18664,7 +19602,7 @@
         <v>3998</v>
       </c>
       <c r="X68">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="Y68">
         <v>1</v>
@@ -18676,7 +19614,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" ht="19.95" customHeight="1">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18692,7 +19630,7 @@
       <c r="E69" t="s">
         <v>371</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="14" t="s">
         <v>574</v>
       </c>
       <c r="G69" t="s">
@@ -18710,7 +19648,7 @@
       <c r="K69" t="s">
         <v>1911</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="3" t="s">
         <v>2177</v>
       </c>
       <c r="M69" t="s">
@@ -18759,7 +19697,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" ht="19.95" customHeight="1">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18775,7 +19713,7 @@
       <c r="E70" t="s">
         <v>372</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="14" t="s">
         <v>575</v>
       </c>
       <c r="G70" t="s">
@@ -18793,7 +19731,7 @@
       <c r="K70" t="s">
         <v>1912</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="3" t="s">
         <v>2178</v>
       </c>
       <c r="M70" t="s">
@@ -18842,7 +19780,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" ht="19.95" customHeight="1">
       <c r="A71">
         <v>70</v>
       </c>
@@ -18858,7 +19796,7 @@
       <c r="E71" t="s">
         <v>372</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="14" t="s">
         <v>576</v>
       </c>
       <c r="G71" t="s">
@@ -18876,7 +19814,7 @@
       <c r="K71" t="s">
         <v>1913</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="3" t="s">
         <v>2179</v>
       </c>
       <c r="M71" t="s">
@@ -18925,7 +19863,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" ht="19.95" customHeight="1">
       <c r="A72">
         <v>71</v>
       </c>
@@ -18941,7 +19879,7 @@
       <c r="E72" t="s">
         <v>373</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="14" t="s">
         <v>577</v>
       </c>
       <c r="G72" t="s">
@@ -18959,7 +19897,7 @@
       <c r="K72" t="s">
         <v>1914</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="3" t="s">
         <v>2180</v>
       </c>
       <c r="M72" t="s">
@@ -19008,7 +19946,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" ht="19.95" customHeight="1">
       <c r="A73">
         <v>72</v>
       </c>
@@ -19024,7 +19962,7 @@
       <c r="E73" t="s">
         <v>374</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="14" t="s">
         <v>578</v>
       </c>
       <c r="G73" t="s">
@@ -19042,7 +19980,7 @@
       <c r="K73" t="s">
         <v>1915</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="3" t="s">
         <v>2181</v>
       </c>
       <c r="M73" t="s">
@@ -19091,7 +20029,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" ht="19.95" customHeight="1">
       <c r="A74">
         <v>73</v>
       </c>
@@ -19107,7 +20045,7 @@
       <c r="E74" t="s">
         <v>364</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="14" t="s">
         <v>579</v>
       </c>
       <c r="G74" t="s">
@@ -19125,7 +20063,7 @@
       <c r="K74" t="s">
         <v>1916</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" s="3" t="s">
         <v>2182</v>
       </c>
       <c r="M74" t="s">
@@ -19174,7 +20112,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" ht="19.95" customHeight="1">
       <c r="A75">
         <v>74</v>
       </c>
@@ -19190,7 +20128,7 @@
       <c r="E75" t="s">
         <v>375</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="14" t="s">
         <v>580</v>
       </c>
       <c r="G75" t="s">
@@ -19208,7 +20146,7 @@
       <c r="K75" t="s">
         <v>1917</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" s="3" t="s">
         <v>2183</v>
       </c>
       <c r="M75" t="s">
@@ -19257,7 +20195,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" ht="19.95" customHeight="1">
       <c r="A76">
         <v>75</v>
       </c>
@@ -19273,7 +20211,7 @@
       <c r="E76" t="s">
         <v>372</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="14" t="s">
         <v>581</v>
       </c>
       <c r="G76" t="s">
@@ -19291,7 +20229,7 @@
       <c r="K76" t="s">
         <v>1918</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="3" t="s">
         <v>2184</v>
       </c>
       <c r="M76" t="s">
@@ -19340,7 +20278,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" ht="19.95" customHeight="1">
       <c r="A77">
         <v>76</v>
       </c>
@@ -19356,7 +20294,7 @@
       <c r="E77" t="s">
         <v>376</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="14" t="s">
         <v>582</v>
       </c>
       <c r="G77" t="s">
@@ -19374,7 +20312,7 @@
       <c r="K77" t="s">
         <v>1919</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="3" t="s">
         <v>2185</v>
       </c>
       <c r="M77" t="s">
@@ -19423,7 +20361,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" ht="19.95" customHeight="1">
       <c r="A78">
         <v>77</v>
       </c>
@@ -19439,7 +20377,7 @@
       <c r="E78" t="s">
         <v>377</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="14" t="s">
         <v>583</v>
       </c>
       <c r="G78" t="s">
@@ -19457,7 +20395,7 @@
       <c r="K78" t="s">
         <v>1920</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="3" t="s">
         <v>2186</v>
       </c>
       <c r="M78" t="s">
@@ -19494,7 +20432,7 @@
         <v>4008</v>
       </c>
       <c r="X78">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="Y78">
         <v>1</v>
@@ -19506,7 +20444,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" ht="19.95" customHeight="1">
       <c r="A79">
         <v>78</v>
       </c>
@@ -19522,7 +20460,7 @@
       <c r="E79" t="s">
         <v>378</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G79" t="s">
@@ -19540,7 +20478,7 @@
       <c r="K79" t="s">
         <v>1921</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="3" t="s">
         <v>2187</v>
       </c>
       <c r="M79" t="s">
@@ -19589,7 +20527,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" ht="19.95" customHeight="1">
       <c r="A80">
         <v>79</v>
       </c>
@@ -19605,7 +20543,7 @@
       <c r="E80" t="s">
         <v>379</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="14" t="s">
         <v>585</v>
       </c>
       <c r="G80" t="s">
@@ -19623,7 +20561,7 @@
       <c r="K80" t="s">
         <v>1922</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="3" t="s">
         <v>2188</v>
       </c>
       <c r="M80" t="s">
@@ -19672,7 +20610,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" ht="19.95" customHeight="1">
       <c r="A81">
         <v>80</v>
       </c>
@@ -19688,7 +20626,7 @@
       <c r="E81" t="s">
         <v>358</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="14" t="s">
         <v>586</v>
       </c>
       <c r="G81" t="s">
@@ -19706,7 +20644,7 @@
       <c r="K81" t="s">
         <v>1923</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="3" t="s">
         <v>2189</v>
       </c>
       <c r="M81" t="s">
@@ -19755,7 +20693,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" ht="19.95" customHeight="1">
       <c r="A82">
         <v>81</v>
       </c>
@@ -19771,7 +20709,7 @@
       <c r="E82" t="s">
         <v>380</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="14" t="s">
         <v>587</v>
       </c>
       <c r="G82" t="s">
@@ -19789,7 +20727,7 @@
       <c r="K82" t="s">
         <v>1924</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="3" t="s">
         <v>2190</v>
       </c>
       <c r="M82" t="s">
@@ -19838,7 +20776,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" ht="19.95" customHeight="1">
       <c r="A83">
         <v>82</v>
       </c>
@@ -19854,7 +20792,7 @@
       <c r="E83" t="s">
         <v>345</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="14" t="s">
         <v>588</v>
       </c>
       <c r="G83" t="s">
@@ -19872,7 +20810,7 @@
       <c r="K83" t="s">
         <v>1925</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="3" t="s">
         <v>2191</v>
       </c>
       <c r="M83" t="s">
@@ -19921,7 +20859,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" ht="19.95" customHeight="1">
       <c r="A84">
         <v>83</v>
       </c>
@@ -19937,7 +20875,7 @@
       <c r="E84" t="s">
         <v>381</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="14" t="s">
         <v>589</v>
       </c>
       <c r="G84" t="s">
@@ -19955,7 +20893,7 @@
       <c r="K84" t="s">
         <v>1926</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="3" t="s">
         <v>2192</v>
       </c>
       <c r="M84" t="s">
@@ -20004,7 +20942,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" ht="19.95" customHeight="1">
       <c r="A85">
         <v>84</v>
       </c>
@@ -20020,7 +20958,7 @@
       <c r="E85" t="s">
         <v>382</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="14" t="s">
         <v>590</v>
       </c>
       <c r="G85" t="s">
@@ -20038,7 +20976,7 @@
       <c r="K85" t="s">
         <v>1927</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="3" t="s">
         <v>2193</v>
       </c>
       <c r="M85" t="s">
@@ -20087,7 +21025,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" ht="19.95" customHeight="1">
       <c r="A86">
         <v>85</v>
       </c>
@@ -20103,7 +21041,7 @@
       <c r="E86" t="s">
         <v>383</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="14" t="s">
         <v>591</v>
       </c>
       <c r="G86" t="s">
@@ -20121,7 +21059,7 @@
       <c r="K86" t="s">
         <v>1928</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="3" t="s">
         <v>2194</v>
       </c>
       <c r="M86" t="s">
@@ -20170,7 +21108,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" ht="19.95" customHeight="1">
       <c r="A87">
         <v>86</v>
       </c>
@@ -20186,7 +21124,7 @@
       <c r="E87" t="s">
         <v>374</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="14" t="s">
         <v>592</v>
       </c>
       <c r="G87" t="s">
@@ -20204,7 +21142,7 @@
       <c r="K87" t="s">
         <v>1929</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L87" s="3" t="s">
         <v>2195</v>
       </c>
       <c r="M87" t="s">
@@ -20253,7 +21191,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" ht="19.95" customHeight="1">
       <c r="A88">
         <v>87</v>
       </c>
@@ -20269,7 +21207,7 @@
       <c r="E88" t="s">
         <v>374</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="14" t="s">
         <v>593</v>
       </c>
       <c r="G88" t="s">
@@ -20287,7 +21225,7 @@
       <c r="K88" t="s">
         <v>1930</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L88" s="3" t="s">
         <v>2196</v>
       </c>
       <c r="M88" t="s">
@@ -20336,7 +21274,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" ht="19.95" customHeight="1">
       <c r="A89">
         <v>88</v>
       </c>
@@ -20352,7 +21290,7 @@
       <c r="E89" t="s">
         <v>384</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="14" t="s">
         <v>594</v>
       </c>
       <c r="G89" t="s">
@@ -20370,7 +21308,7 @@
       <c r="K89" t="s">
         <v>1931</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L89" s="3" t="s">
         <v>2197</v>
       </c>
       <c r="M89" t="s">
@@ -20419,7 +21357,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" ht="19.95" customHeight="1">
       <c r="A90">
         <v>89</v>
       </c>
@@ -20435,7 +21373,7 @@
       <c r="E90" t="s">
         <v>385</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="14" t="s">
         <v>595</v>
       </c>
       <c r="G90" t="s">
@@ -20453,7 +21391,7 @@
       <c r="K90" t="s">
         <v>1932</v>
       </c>
-      <c r="L90" t="s">
+      <c r="L90" s="3" t="s">
         <v>2198</v>
       </c>
       <c r="M90" t="s">
@@ -20502,7 +21440,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" ht="19.95" customHeight="1">
       <c r="A91">
         <v>90</v>
       </c>
@@ -20518,7 +21456,7 @@
       <c r="E91" t="s">
         <v>386</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="14" t="s">
         <v>596</v>
       </c>
       <c r="G91" t="s">
@@ -20536,7 +21474,7 @@
       <c r="K91" t="s">
         <v>1933</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="3" t="s">
         <v>2199</v>
       </c>
       <c r="M91" t="s">
@@ -20585,7 +21523,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" ht="19.95" customHeight="1">
       <c r="A92">
         <v>91</v>
       </c>
@@ -20601,7 +21539,7 @@
       <c r="E92" t="s">
         <v>387</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="14" t="s">
         <v>597</v>
       </c>
       <c r="G92" t="s">
@@ -20619,7 +21557,7 @@
       <c r="K92" t="s">
         <v>1934</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L92" s="3" t="s">
         <v>2200</v>
       </c>
       <c r="M92" t="s">
@@ -20668,7 +21606,7 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" ht="19.95" customHeight="1">
       <c r="A93">
         <v>92</v>
       </c>
@@ -20684,7 +21622,7 @@
       <c r="E93" t="s">
         <v>330</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="14" t="s">
         <v>598</v>
       </c>
       <c r="G93" t="s">
@@ -20702,7 +21640,7 @@
       <c r="K93" t="s">
         <v>1935</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L93" s="3" t="s">
         <v>2201</v>
       </c>
       <c r="M93" t="s">
@@ -20751,7 +21689,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" ht="19.95" customHeight="1">
       <c r="A94">
         <v>93</v>
       </c>
@@ -20767,7 +21705,7 @@
       <c r="E94" t="s">
         <v>372</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="14" t="s">
         <v>599</v>
       </c>
       <c r="G94" t="s">
@@ -20785,7 +21723,7 @@
       <c r="K94" t="s">
         <v>1936</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" s="3" t="s">
         <v>2202</v>
       </c>
       <c r="M94" t="s">
@@ -20834,7 +21772,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" ht="19.95" customHeight="1">
       <c r="A95">
         <v>94</v>
       </c>
@@ -20850,7 +21788,7 @@
       <c r="E95" t="s">
         <v>388</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="14" t="s">
         <v>600</v>
       </c>
       <c r="G95" t="s">
@@ -20868,7 +21806,7 @@
       <c r="K95" t="s">
         <v>1937</v>
       </c>
-      <c r="L95" t="s">
+      <c r="L95" s="3" t="s">
         <v>2203</v>
       </c>
       <c r="M95" t="s">
@@ -20917,7 +21855,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" ht="19.95" customHeight="1">
       <c r="A96">
         <v>95</v>
       </c>
@@ -20933,7 +21871,7 @@
       <c r="E96" t="s">
         <v>374</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="14" t="s">
         <v>601</v>
       </c>
       <c r="G96" t="s">
@@ -20951,7 +21889,7 @@
       <c r="K96" t="s">
         <v>1938</v>
       </c>
-      <c r="L96" t="s">
+      <c r="L96" s="3" t="s">
         <v>2204</v>
       </c>
       <c r="M96" t="s">
@@ -21000,7 +21938,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" ht="19.95" customHeight="1">
       <c r="A97">
         <v>96</v>
       </c>
@@ -21016,7 +21954,7 @@
       <c r="E97" t="s">
         <v>389</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="14" t="s">
         <v>602</v>
       </c>
       <c r="G97" t="s">
@@ -21034,7 +21972,7 @@
       <c r="K97" t="s">
         <v>1939</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L97" s="3" t="s">
         <v>2205</v>
       </c>
       <c r="M97" t="s">
@@ -21083,7 +22021,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" ht="19.95" customHeight="1">
       <c r="A98">
         <v>97</v>
       </c>
@@ -21099,7 +22037,7 @@
       <c r="E98" t="s">
         <v>345</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="14" t="s">
         <v>603</v>
       </c>
       <c r="G98" t="s">
@@ -21117,7 +22055,7 @@
       <c r="K98" t="s">
         <v>1940</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" s="3" t="s">
         <v>2206</v>
       </c>
       <c r="M98" t="s">
@@ -21166,7 +22104,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" ht="19.95" customHeight="1">
       <c r="A99">
         <v>98</v>
       </c>
@@ -21182,7 +22120,7 @@
       <c r="E99" t="s">
         <v>390</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="14" t="s">
         <v>604</v>
       </c>
       <c r="G99" t="s">
@@ -21200,7 +22138,7 @@
       <c r="K99" t="s">
         <v>1941</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="3" t="s">
         <v>2207</v>
       </c>
       <c r="M99" t="s">
@@ -21249,7 +22187,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" ht="19.95" customHeight="1">
       <c r="A100">
         <v>99</v>
       </c>
@@ -21265,7 +22203,7 @@
       <c r="E100" t="s">
         <v>391</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="14" t="s">
         <v>605</v>
       </c>
       <c r="G100" t="s">
@@ -21283,7 +22221,7 @@
       <c r="K100" t="s">
         <v>1942</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L100" s="3" t="s">
         <v>2208</v>
       </c>
       <c r="M100" t="s">
@@ -21332,7 +22270,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" ht="19.95" customHeight="1">
       <c r="A101">
         <v>100</v>
       </c>
@@ -21348,7 +22286,7 @@
       <c r="E101" t="s">
         <v>378</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="14" t="s">
         <v>606</v>
       </c>
       <c r="G101" t="s">
@@ -21366,7 +22304,7 @@
       <c r="K101" t="s">
         <v>1943</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" s="3" t="s">
         <v>2209</v>
       </c>
       <c r="M101" t="s">
@@ -21403,7 +22341,7 @@
         <v>4031</v>
       </c>
       <c r="X101">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="Y101">
         <v>1</v>
@@ -21415,7 +22353,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" ht="19.95" customHeight="1">
       <c r="A102">
         <v>101</v>
       </c>
@@ -21431,7 +22369,7 @@
       <c r="E102" t="s">
         <v>345</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="14" t="s">
         <v>607</v>
       </c>
       <c r="G102" t="s">
@@ -21449,7 +22387,7 @@
       <c r="K102" t="s">
         <v>1944</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L102" s="3" t="s">
         <v>2210</v>
       </c>
       <c r="M102" t="s">
@@ -21498,7 +22436,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" ht="19.95" customHeight="1">
       <c r="A103">
         <v>102</v>
       </c>
@@ -21514,7 +22452,7 @@
       <c r="E103" t="s">
         <v>378</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="14" t="s">
         <v>608</v>
       </c>
       <c r="G103" t="s">
@@ -21532,7 +22470,7 @@
       <c r="K103" t="s">
         <v>1945</v>
       </c>
-      <c r="L103" t="s">
+      <c r="L103" s="3" t="s">
         <v>2211</v>
       </c>
       <c r="M103" t="s">
@@ -21581,7 +22519,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" ht="19.95" customHeight="1">
       <c r="A104">
         <v>103</v>
       </c>
@@ -21597,7 +22535,7 @@
       <c r="E104" t="s">
         <v>392</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="14" t="s">
         <v>609</v>
       </c>
       <c r="G104" t="s">
@@ -21615,7 +22553,7 @@
       <c r="K104" t="s">
         <v>1946</v>
       </c>
-      <c r="L104" t="s">
+      <c r="L104" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="M104" t="s">
@@ -21664,7 +22602,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" ht="19.95" customHeight="1">
       <c r="A105">
         <v>104</v>
       </c>
@@ -21680,7 +22618,7 @@
       <c r="E105" t="s">
         <v>393</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="14" t="s">
         <v>610</v>
       </c>
       <c r="G105" t="s">
@@ -21698,7 +22636,7 @@
       <c r="K105" t="s">
         <v>1947</v>
       </c>
-      <c r="L105" t="s">
+      <c r="L105" s="3" t="s">
         <v>2213</v>
       </c>
       <c r="M105" t="s">
@@ -21747,7 +22685,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" ht="19.95" customHeight="1">
       <c r="A106">
         <v>105</v>
       </c>
@@ -21763,7 +22701,7 @@
       <c r="E106" t="s">
         <v>394</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="14" t="s">
         <v>611</v>
       </c>
       <c r="G106" t="s">
@@ -21781,7 +22719,7 @@
       <c r="K106" t="s">
         <v>1948</v>
       </c>
-      <c r="L106" t="s">
+      <c r="L106" s="3" t="s">
         <v>2214</v>
       </c>
       <c r="M106" t="s">
@@ -21830,7 +22768,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" ht="19.95" customHeight="1">
       <c r="A107">
         <v>106</v>
       </c>
@@ -21846,7 +22784,7 @@
       <c r="E107" t="s">
         <v>345</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="14" t="s">
         <v>612</v>
       </c>
       <c r="G107" t="s">
@@ -21864,7 +22802,7 @@
       <c r="K107" t="s">
         <v>1949</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" s="3" t="s">
         <v>2215</v>
       </c>
       <c r="M107" t="s">
@@ -21913,7 +22851,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" ht="19.95" customHeight="1">
       <c r="A108">
         <v>107</v>
       </c>
@@ -21929,7 +22867,7 @@
       <c r="E108" t="s">
         <v>345</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="14" t="s">
         <v>613</v>
       </c>
       <c r="G108" t="s">
@@ -21947,7 +22885,7 @@
       <c r="K108" t="s">
         <v>1950</v>
       </c>
-      <c r="L108" t="s">
+      <c r="L108" s="3" t="s">
         <v>2216</v>
       </c>
       <c r="M108" t="s">
@@ -21996,7 +22934,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" ht="19.95" customHeight="1">
       <c r="A109">
         <v>108</v>
       </c>
@@ -22012,7 +22950,7 @@
       <c r="E109" t="s">
         <v>345</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="14" t="s">
         <v>614</v>
       </c>
       <c r="G109" t="s">
@@ -22030,7 +22968,7 @@
       <c r="K109" t="s">
         <v>1951</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" s="3" t="s">
         <v>2217</v>
       </c>
       <c r="M109" t="s">
@@ -22079,7 +23017,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" ht="19.95" customHeight="1">
       <c r="A110">
         <v>109</v>
       </c>
@@ -22095,7 +23033,7 @@
       <c r="E110" t="s">
         <v>395</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="14" t="s">
         <v>615</v>
       </c>
       <c r="G110" t="s">
@@ -22113,7 +23051,7 @@
       <c r="K110" t="s">
         <v>1952</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L110" s="3" t="s">
         <v>2218</v>
       </c>
       <c r="M110" t="s">
@@ -22162,7 +23100,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" ht="19.95" customHeight="1">
       <c r="A111">
         <v>110</v>
       </c>
@@ -22178,7 +23116,7 @@
       <c r="E111" t="s">
         <v>396</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="14" t="s">
         <v>616</v>
       </c>
       <c r="G111" t="s">
@@ -22196,7 +23134,7 @@
       <c r="K111" t="s">
         <v>1953</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L111" s="3" t="s">
         <v>2219</v>
       </c>
       <c r="M111" t="s">
@@ -22245,7 +23183,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" ht="19.95" customHeight="1">
       <c r="A112">
         <v>111</v>
       </c>
@@ -22261,7 +23199,7 @@
       <c r="E112" t="s">
         <v>397</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="14" t="s">
         <v>617</v>
       </c>
       <c r="G112" t="s">
@@ -22279,7 +23217,7 @@
       <c r="K112" t="s">
         <v>1954</v>
       </c>
-      <c r="L112" t="s">
+      <c r="L112" s="3" t="s">
         <v>2220</v>
       </c>
       <c r="M112" t="s">
@@ -22328,7 +23266,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" ht="19.95" customHeight="1">
       <c r="A113">
         <v>112</v>
       </c>
@@ -22344,7 +23282,7 @@
       <c r="E113" t="s">
         <v>398</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="14" t="s">
         <v>618</v>
       </c>
       <c r="G113" t="s">
@@ -22362,7 +23300,7 @@
       <c r="K113" t="s">
         <v>1955</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L113" s="3" t="s">
         <v>2221</v>
       </c>
       <c r="M113" t="s">
@@ -22411,7 +23349,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" ht="19.95" customHeight="1">
       <c r="A114">
         <v>113</v>
       </c>
@@ -22427,7 +23365,7 @@
       <c r="E114" t="s">
         <v>399</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="14" t="s">
         <v>619</v>
       </c>
       <c r="G114" t="s">
@@ -22445,7 +23383,7 @@
       <c r="K114" t="s">
         <v>1956</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L114" s="3" t="s">
         <v>2222</v>
       </c>
       <c r="M114" t="s">
@@ -22482,7 +23420,7 @@
         <v>4044</v>
       </c>
       <c r="X114">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y114">
         <v>1</v>
@@ -22494,7 +23432,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" ht="19.95" customHeight="1">
       <c r="A115">
         <v>114</v>
       </c>
@@ -22510,7 +23448,7 @@
       <c r="E115" t="s">
         <v>330</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="14" t="s">
         <v>620</v>
       </c>
       <c r="G115" t="s">
@@ -22528,7 +23466,7 @@
       <c r="K115" t="s">
         <v>1957</v>
       </c>
-      <c r="L115" t="s">
+      <c r="L115" s="3" t="s">
         <v>2223</v>
       </c>
       <c r="M115" t="s">
@@ -22577,7 +23515,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" ht="19.95" customHeight="1">
       <c r="A116">
         <v>115</v>
       </c>
@@ -22593,7 +23531,7 @@
       <c r="E116" t="s">
         <v>345</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="14" t="s">
         <v>621</v>
       </c>
       <c r="G116" t="s">
@@ -22611,7 +23549,7 @@
       <c r="K116" t="s">
         <v>1958</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="3" t="s">
         <v>2224</v>
       </c>
       <c r="M116" t="s">
@@ -22660,7 +23598,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" ht="19.95" customHeight="1">
       <c r="A117">
         <v>116</v>
       </c>
@@ -22676,7 +23614,7 @@
       <c r="E117" t="s">
         <v>330</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="14" t="s">
         <v>622</v>
       </c>
       <c r="G117" t="s">
@@ -22694,7 +23632,7 @@
       <c r="K117" t="s">
         <v>1959</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L117" s="3" t="s">
         <v>2225</v>
       </c>
       <c r="M117" t="s">
@@ -22743,7 +23681,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" ht="19.95" customHeight="1">
       <c r="A118">
         <v>117</v>
       </c>
@@ -22759,7 +23697,7 @@
       <c r="E118" t="s">
         <v>400</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="14" t="s">
         <v>623</v>
       </c>
       <c r="G118" t="s">
@@ -22777,7 +23715,7 @@
       <c r="K118" t="s">
         <v>1960</v>
       </c>
-      <c r="L118" t="s">
+      <c r="L118" s="3" t="s">
         <v>2226</v>
       </c>
       <c r="M118" t="s">
@@ -22826,7 +23764,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" ht="19.95" customHeight="1">
       <c r="A119">
         <v>118</v>
       </c>
@@ -22842,7 +23780,7 @@
       <c r="E119" t="s">
         <v>401</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="14" t="s">
         <v>624</v>
       </c>
       <c r="G119" t="s">
@@ -22860,7 +23798,7 @@
       <c r="K119" t="s">
         <v>1961</v>
       </c>
-      <c r="L119" t="s">
+      <c r="L119" s="3" t="s">
         <v>2227</v>
       </c>
       <c r="M119" t="s">
@@ -22909,7 +23847,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" ht="19.95" customHeight="1">
       <c r="A120">
         <v>119</v>
       </c>
@@ -22925,7 +23863,7 @@
       <c r="E120" t="s">
         <v>402</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="14" t="s">
         <v>625</v>
       </c>
       <c r="G120" t="s">
@@ -22943,7 +23881,7 @@
       <c r="K120" t="s">
         <v>1962</v>
       </c>
-      <c r="L120" t="s">
+      <c r="L120" s="3" t="s">
         <v>2228</v>
       </c>
       <c r="M120" t="s">
@@ -22992,7 +23930,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" ht="19.95" customHeight="1">
       <c r="A121">
         <v>120</v>
       </c>
@@ -23008,7 +23946,7 @@
       <c r="E121" t="s">
         <v>403</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="14" t="s">
         <v>626</v>
       </c>
       <c r="G121" t="s">
@@ -23026,7 +23964,7 @@
       <c r="K121" t="s">
         <v>1963</v>
       </c>
-      <c r="L121" t="s">
+      <c r="L121" s="3" t="s">
         <v>2229</v>
       </c>
       <c r="M121" t="s">
@@ -23075,7 +24013,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" ht="19.95" customHeight="1">
       <c r="A122">
         <v>121</v>
       </c>
@@ -23091,7 +24029,7 @@
       <c r="E122" t="s">
         <v>404</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="14" t="s">
         <v>627</v>
       </c>
       <c r="G122" t="s">
@@ -23109,7 +24047,7 @@
       <c r="K122" t="s">
         <v>1964</v>
       </c>
-      <c r="L122" t="s">
+      <c r="L122" s="3" t="s">
         <v>2230</v>
       </c>
       <c r="M122" t="s">
@@ -23158,7 +24096,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" ht="19.95" customHeight="1">
       <c r="A123">
         <v>122</v>
       </c>
@@ -23174,7 +24112,7 @@
       <c r="E123" t="s">
         <v>330</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="14" t="s">
         <v>628</v>
       </c>
       <c r="G123" t="s">
@@ -23192,7 +24130,7 @@
       <c r="K123" t="s">
         <v>1965</v>
       </c>
-      <c r="L123" t="s">
+      <c r="L123" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="M123" t="s">
@@ -23241,7 +24179,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" ht="19.95" customHeight="1">
       <c r="A124">
         <v>123</v>
       </c>
@@ -23257,7 +24195,7 @@
       <c r="E124" t="s">
         <v>405</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="14" t="s">
         <v>629</v>
       </c>
       <c r="G124" t="s">
@@ -23275,7 +24213,7 @@
       <c r="K124" t="s">
         <v>1966</v>
       </c>
-      <c r="L124" t="s">
+      <c r="L124" s="3" t="s">
         <v>2232</v>
       </c>
       <c r="M124" t="s">
@@ -23324,7 +24262,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" ht="19.95" customHeight="1">
       <c r="A125">
         <v>124</v>
       </c>
@@ -23340,7 +24278,7 @@
       <c r="E125" t="s">
         <v>406</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="14" t="s">
         <v>630</v>
       </c>
       <c r="G125" t="s">
@@ -23358,7 +24296,7 @@
       <c r="K125" t="s">
         <v>1967</v>
       </c>
-      <c r="L125" t="s">
+      <c r="L125" s="3" t="s">
         <v>2233</v>
       </c>
       <c r="M125" t="s">
@@ -23407,7 +24345,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" ht="19.95" customHeight="1">
       <c r="A126">
         <v>125</v>
       </c>
@@ -23423,7 +24361,7 @@
       <c r="E126" t="s">
         <v>378</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="14" t="s">
         <v>631</v>
       </c>
       <c r="G126" t="s">
@@ -23441,7 +24379,7 @@
       <c r="K126" t="s">
         <v>1968</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L126" s="3" t="s">
         <v>2234</v>
       </c>
       <c r="M126" t="s">
@@ -23490,7 +24428,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" ht="19.95" customHeight="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -23506,7 +24444,7 @@
       <c r="E127" t="s">
         <v>312</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="14" t="s">
         <v>632</v>
       </c>
       <c r="G127" t="s">
@@ -23524,7 +24462,7 @@
       <c r="K127" t="s">
         <v>1969</v>
       </c>
-      <c r="L127" t="s">
+      <c r="L127" s="3" t="s">
         <v>2235</v>
       </c>
       <c r="M127" t="s">
@@ -23573,7 +24511,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" ht="19.95" customHeight="1">
       <c r="A128">
         <v>127</v>
       </c>
@@ -23589,7 +24527,7 @@
       <c r="E128" t="s">
         <v>407</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="14" t="s">
         <v>633</v>
       </c>
       <c r="G128" t="s">
@@ -23607,7 +24545,7 @@
       <c r="K128" t="s">
         <v>1970</v>
       </c>
-      <c r="L128" t="s">
+      <c r="L128" s="3" t="s">
         <v>2236</v>
       </c>
       <c r="M128" t="s">
@@ -23656,7 +24594,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" ht="19.95" customHeight="1">
       <c r="A129">
         <v>128</v>
       </c>
@@ -23672,7 +24610,7 @@
       <c r="E129" t="s">
         <v>374</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="14" t="s">
         <v>634</v>
       </c>
       <c r="G129" t="s">
@@ -23690,7 +24628,7 @@
       <c r="K129" t="s">
         <v>1971</v>
       </c>
-      <c r="L129" t="s">
+      <c r="L129" s="3" t="s">
         <v>2237</v>
       </c>
       <c r="M129" t="s">
@@ -23739,7 +24677,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" ht="19.95" customHeight="1">
       <c r="A130">
         <v>129</v>
       </c>
@@ -23755,7 +24693,7 @@
       <c r="E130" t="s">
         <v>408</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="14" t="s">
         <v>635</v>
       </c>
       <c r="G130" t="s">
@@ -23773,7 +24711,7 @@
       <c r="K130" t="s">
         <v>1972</v>
       </c>
-      <c r="L130" t="s">
+      <c r="L130" s="3" t="s">
         <v>2238</v>
       </c>
       <c r="M130" t="s">
@@ -23822,7 +24760,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" ht="19.95" customHeight="1">
       <c r="A131">
         <v>130</v>
       </c>
@@ -23838,7 +24776,7 @@
       <c r="E131" t="s">
         <v>378</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="14" t="s">
         <v>636</v>
       </c>
       <c r="G131" t="s">
@@ -23856,7 +24794,7 @@
       <c r="K131" t="s">
         <v>1973</v>
       </c>
-      <c r="L131" t="s">
+      <c r="L131" s="3" t="s">
         <v>2239</v>
       </c>
       <c r="M131" t="s">
@@ -23905,7 +24843,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" ht="19.95" customHeight="1">
       <c r="A132">
         <v>131</v>
       </c>
@@ -23921,7 +24859,7 @@
       <c r="E132" t="s">
         <v>409</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="14" t="s">
         <v>637</v>
       </c>
       <c r="G132" t="s">
@@ -23939,7 +24877,7 @@
       <c r="K132" t="s">
         <v>1974</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L132" s="3" t="s">
         <v>2240</v>
       </c>
       <c r="M132" t="s">
@@ -23988,7 +24926,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" ht="19.95" customHeight="1">
       <c r="A133">
         <v>132</v>
       </c>
@@ -24004,7 +24942,7 @@
       <c r="E133" t="s">
         <v>410</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="14" t="s">
         <v>638</v>
       </c>
       <c r="G133" t="s">
@@ -24022,7 +24960,7 @@
       <c r="K133" t="s">
         <v>1975</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L133" s="3" t="s">
         <v>2241</v>
       </c>
       <c r="M133" t="s">
@@ -24071,7 +25009,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" ht="19.95" customHeight="1">
       <c r="A134">
         <v>133</v>
       </c>
@@ -24087,7 +25025,7 @@
       <c r="E134" t="s">
         <v>411</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="14" t="s">
         <v>639</v>
       </c>
       <c r="G134" t="s">
@@ -24105,7 +25043,7 @@
       <c r="K134" t="s">
         <v>1976</v>
       </c>
-      <c r="L134" t="s">
+      <c r="L134" s="3" t="s">
         <v>2242</v>
       </c>
       <c r="M134" t="s">
@@ -24142,7 +25080,7 @@
         <v>4064</v>
       </c>
       <c r="X134">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y134">
         <v>1</v>
@@ -24154,7 +25092,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" ht="19.95" customHeight="1">
       <c r="A135">
         <v>134</v>
       </c>
@@ -24170,7 +25108,7 @@
       <c r="E135" t="s">
         <v>372</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="14" t="s">
         <v>640</v>
       </c>
       <c r="G135" t="s">
@@ -24188,7 +25126,7 @@
       <c r="K135" t="s">
         <v>1977</v>
       </c>
-      <c r="L135" t="s">
+      <c r="L135" s="3" t="s">
         <v>2243</v>
       </c>
       <c r="M135" t="s">
@@ -24237,7 +25175,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" ht="19.95" customHeight="1">
       <c r="A136">
         <v>135</v>
       </c>
@@ -24253,7 +25191,7 @@
       <c r="E136" t="s">
         <v>412</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="14" t="s">
         <v>641</v>
       </c>
       <c r="G136" t="s">
@@ -24271,7 +25209,7 @@
       <c r="K136" t="s">
         <v>1978</v>
       </c>
-      <c r="L136" t="s">
+      <c r="L136" s="3" t="s">
         <v>2244</v>
       </c>
       <c r="M136" t="s">
@@ -24320,7 +25258,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" ht="19.95" customHeight="1">
       <c r="A137">
         <v>136</v>
       </c>
@@ -24336,7 +25274,7 @@
       <c r="E137" t="s">
         <v>413</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="14" t="s">
         <v>642</v>
       </c>
       <c r="G137" t="s">
@@ -24354,7 +25292,7 @@
       <c r="K137" t="s">
         <v>1979</v>
       </c>
-      <c r="L137" t="s">
+      <c r="L137" s="3" t="s">
         <v>2245</v>
       </c>
       <c r="M137" t="s">
@@ -24403,7 +25341,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" ht="19.95" customHeight="1">
       <c r="A138">
         <v>137</v>
       </c>
@@ -24419,7 +25357,7 @@
       <c r="E138" t="s">
         <v>414</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="14" t="s">
         <v>643</v>
       </c>
       <c r="G138" t="s">
@@ -24437,7 +25375,7 @@
       <c r="K138" t="s">
         <v>1980</v>
       </c>
-      <c r="L138" t="s">
+      <c r="L138" s="3" t="s">
         <v>2246</v>
       </c>
       <c r="M138" t="s">
@@ -24486,7 +25424,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" ht="19.95" customHeight="1">
       <c r="A139">
         <v>138</v>
       </c>
@@ -24502,7 +25440,7 @@
       <c r="E139" t="s">
         <v>415</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="14" t="s">
         <v>644</v>
       </c>
       <c r="G139" t="s">
@@ -24520,7 +25458,7 @@
       <c r="K139" t="s">
         <v>1981</v>
       </c>
-      <c r="L139" t="s">
+      <c r="L139" s="3" t="s">
         <v>2247</v>
       </c>
       <c r="M139" t="s">
@@ -24569,7 +25507,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" ht="19.95" customHeight="1">
       <c r="A140">
         <v>139</v>
       </c>
@@ -24585,7 +25523,7 @@
       <c r="E140" t="s">
         <v>416</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="14" t="s">
         <v>645</v>
       </c>
       <c r="G140" t="s">
@@ -24603,7 +25541,7 @@
       <c r="K140" t="s">
         <v>1982</v>
       </c>
-      <c r="L140" t="s">
+      <c r="L140" s="3" t="s">
         <v>2248</v>
       </c>
       <c r="M140" t="s">
@@ -24652,7 +25590,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" ht="19.95" customHeight="1">
       <c r="A141">
         <v>140</v>
       </c>
@@ -24668,7 +25606,7 @@
       <c r="E141" t="s">
         <v>417</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="14" t="s">
         <v>646</v>
       </c>
       <c r="G141" t="s">
@@ -24686,7 +25624,7 @@
       <c r="K141" t="s">
         <v>1983</v>
       </c>
-      <c r="L141" t="s">
+      <c r="L141" s="3" t="s">
         <v>2249</v>
       </c>
       <c r="M141" t="s">
@@ -24735,7 +25673,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" ht="19.95" customHeight="1">
       <c r="A142">
         <v>141</v>
       </c>
@@ -24751,7 +25689,7 @@
       <c r="E142" t="s">
         <v>378</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="14" t="s">
         <v>647</v>
       </c>
       <c r="G142" t="s">
@@ -24769,7 +25707,7 @@
       <c r="K142" t="s">
         <v>1984</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L142" s="3" t="s">
         <v>2250</v>
       </c>
       <c r="M142" t="s">
@@ -24818,7 +25756,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" ht="19.95" customHeight="1">
       <c r="A143">
         <v>142</v>
       </c>
@@ -24834,7 +25772,7 @@
       <c r="E143" t="s">
         <v>378</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="14" t="s">
         <v>648</v>
       </c>
       <c r="G143" t="s">
@@ -24852,7 +25790,7 @@
       <c r="K143" t="s">
         <v>1985</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L143" s="3" t="s">
         <v>2251</v>
       </c>
       <c r="M143" t="s">
@@ -24901,7 +25839,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" ht="19.95" customHeight="1">
       <c r="A144">
         <v>143</v>
       </c>
@@ -24917,7 +25855,7 @@
       <c r="E144" t="s">
         <v>345</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="14" t="s">
         <v>649</v>
       </c>
       <c r="G144" t="s">
@@ -24935,7 +25873,7 @@
       <c r="K144" t="s">
         <v>1986</v>
       </c>
-      <c r="L144" t="s">
+      <c r="L144" s="3" t="s">
         <v>2252</v>
       </c>
       <c r="M144" t="s">
@@ -24984,7 +25922,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" ht="19.95" customHeight="1">
       <c r="A145">
         <v>144</v>
       </c>
@@ -25000,7 +25938,7 @@
       <c r="E145" t="s">
         <v>345</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="14" t="s">
         <v>650</v>
       </c>
       <c r="G145" t="s">
@@ -25018,7 +25956,7 @@
       <c r="K145" t="s">
         <v>1987</v>
       </c>
-      <c r="L145" t="s">
+      <c r="L145" s="3" t="s">
         <v>2253</v>
       </c>
       <c r="M145" t="s">
@@ -25067,7 +26005,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" ht="19.95" customHeight="1">
       <c r="A146">
         <v>145</v>
       </c>
@@ -25083,7 +26021,7 @@
       <c r="E146" t="s">
         <v>345</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="14" t="s">
         <v>651</v>
       </c>
       <c r="G146" t="s">
@@ -25101,7 +26039,7 @@
       <c r="K146" t="s">
         <v>1988</v>
       </c>
-      <c r="L146" t="s">
+      <c r="L146" s="3" t="s">
         <v>2254</v>
       </c>
       <c r="M146" t="s">
@@ -25138,7 +26076,7 @@
         <v>4076</v>
       </c>
       <c r="X146">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y146">
         <v>1</v>
@@ -25150,7 +26088,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" ht="19.95" customHeight="1">
       <c r="A147">
         <v>146</v>
       </c>
@@ -25166,7 +26104,7 @@
       <c r="E147" t="s">
         <v>418</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="14" t="s">
         <v>652</v>
       </c>
       <c r="G147" t="s">
@@ -25184,7 +26122,7 @@
       <c r="K147" t="s">
         <v>1989</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L147" s="3" t="s">
         <v>2255</v>
       </c>
       <c r="M147" t="s">
@@ -25233,7 +26171,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" ht="19.95" customHeight="1">
       <c r="A148">
         <v>147</v>
       </c>
@@ -25249,7 +26187,7 @@
       <c r="E148" t="s">
         <v>419</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="14" t="s">
         <v>653</v>
       </c>
       <c r="G148" t="s">
@@ -25267,7 +26205,7 @@
       <c r="K148" t="s">
         <v>1990</v>
       </c>
-      <c r="L148" t="s">
+      <c r="L148" s="3" t="s">
         <v>2256</v>
       </c>
       <c r="M148" t="s">
@@ -25316,7 +26254,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" ht="19.95" customHeight="1">
       <c r="A149">
         <v>148</v>
       </c>
@@ -25332,7 +26270,7 @@
       <c r="E149" t="s">
         <v>420</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="14" t="s">
         <v>654</v>
       </c>
       <c r="G149" t="s">
@@ -25350,7 +26288,7 @@
       <c r="K149" t="s">
         <v>1991</v>
       </c>
-      <c r="L149" t="s">
+      <c r="L149" s="3" t="s">
         <v>2257</v>
       </c>
       <c r="M149" t="s">
@@ -25399,7 +26337,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" ht="19.95" customHeight="1">
       <c r="A150">
         <v>149</v>
       </c>
@@ -25415,7 +26353,7 @@
       <c r="E150" t="s">
         <v>345</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="14" t="s">
         <v>655</v>
       </c>
       <c r="G150" t="s">
@@ -25433,7 +26371,7 @@
       <c r="K150" t="s">
         <v>1992</v>
       </c>
-      <c r="L150" t="s">
+      <c r="L150" s="3" t="s">
         <v>2258</v>
       </c>
       <c r="M150" t="s">
@@ -25482,7 +26420,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" ht="19.95" customHeight="1">
       <c r="A151">
         <v>150</v>
       </c>
@@ -25498,7 +26436,7 @@
       <c r="E151" t="s">
         <v>421</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="14" t="s">
         <v>656</v>
       </c>
       <c r="G151" t="s">
@@ -25516,7 +26454,7 @@
       <c r="K151" t="s">
         <v>1993</v>
       </c>
-      <c r="L151" t="s">
+      <c r="L151" s="3" t="s">
         <v>2259</v>
       </c>
       <c r="M151" t="s">
@@ -25565,7 +26503,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" ht="19.95" customHeight="1">
       <c r="A152">
         <v>151</v>
       </c>
@@ -25581,7 +26519,7 @@
       <c r="E152" t="s">
         <v>345</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="14" t="s">
         <v>657</v>
       </c>
       <c r="G152" t="s">
@@ -25599,7 +26537,7 @@
       <c r="K152" t="s">
         <v>1994</v>
       </c>
-      <c r="L152" t="s">
+      <c r="L152" s="3" t="s">
         <v>2260</v>
       </c>
       <c r="M152" t="s">
@@ -25648,7 +26586,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" ht="19.95" customHeight="1">
       <c r="A153">
         <v>152</v>
       </c>
@@ -25664,7 +26602,7 @@
       <c r="E153" t="s">
         <v>422</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="14" t="s">
         <v>658</v>
       </c>
       <c r="G153" t="s">
@@ -25682,7 +26620,7 @@
       <c r="K153" t="s">
         <v>1995</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L153" s="3" t="s">
         <v>2261</v>
       </c>
       <c r="M153" t="s">
@@ -25731,7 +26669,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" ht="19.95" customHeight="1">
       <c r="A154">
         <v>153</v>
       </c>
@@ -25747,7 +26685,7 @@
       <c r="E154" t="s">
         <v>423</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="14" t="s">
         <v>659</v>
       </c>
       <c r="G154" t="s">
@@ -25811,7 +26749,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" ht="19.95" customHeight="1">
       <c r="A155">
         <v>154</v>
       </c>
@@ -25827,7 +26765,7 @@
       <c r="E155" t="s">
         <v>424</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="14" t="s">
         <v>660</v>
       </c>
       <c r="G155" t="s">
@@ -25845,7 +26783,7 @@
       <c r="K155" t="s">
         <v>1997</v>
       </c>
-      <c r="L155" t="s">
+      <c r="L155" s="3" t="s">
         <v>2262</v>
       </c>
       <c r="M155" t="s">
@@ -25894,7 +26832,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" ht="19.95" customHeight="1">
       <c r="A156">
         <v>155</v>
       </c>
@@ -25910,7 +26848,7 @@
       <c r="E156" t="s">
         <v>425</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="14" t="s">
         <v>661</v>
       </c>
       <c r="G156" t="s">
@@ -25928,7 +26866,7 @@
       <c r="K156" t="s">
         <v>1998</v>
       </c>
-      <c r="L156" t="s">
+      <c r="L156" s="3" t="s">
         <v>2263</v>
       </c>
       <c r="M156" t="s">
@@ -25977,7 +26915,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" ht="19.95" customHeight="1">
       <c r="A157">
         <v>156</v>
       </c>
@@ -25993,7 +26931,7 @@
       <c r="E157" t="s">
         <v>345</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="14" t="s">
         <v>662</v>
       </c>
       <c r="G157" t="s">
@@ -26011,7 +26949,7 @@
       <c r="K157" t="s">
         <v>1999</v>
       </c>
-      <c r="L157" t="s">
+      <c r="L157" s="3" t="s">
         <v>2264</v>
       </c>
       <c r="M157" t="s">
@@ -26060,7 +26998,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" ht="19.95" customHeight="1">
       <c r="A158">
         <v>157</v>
       </c>
@@ -26076,7 +27014,7 @@
       <c r="E158" t="s">
         <v>345</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="14" t="s">
         <v>663</v>
       </c>
       <c r="G158" t="s">
@@ -26094,7 +27032,7 @@
       <c r="K158" t="s">
         <v>2000</v>
       </c>
-      <c r="L158" t="s">
+      <c r="L158" s="3" t="s">
         <v>2265</v>
       </c>
       <c r="M158" t="s">
@@ -26143,7 +27081,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" ht="19.95" customHeight="1">
       <c r="A159">
         <v>158</v>
       </c>
@@ -26159,7 +27097,7 @@
       <c r="E159" t="s">
         <v>426</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="14" t="s">
         <v>664</v>
       </c>
       <c r="G159" t="s">
@@ -26177,7 +27115,7 @@
       <c r="K159" t="s">
         <v>2001</v>
       </c>
-      <c r="L159" t="s">
+      <c r="L159" s="3" t="s">
         <v>2266</v>
       </c>
       <c r="M159" t="s">
@@ -26226,7 +27164,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" ht="19.95" customHeight="1">
       <c r="A160">
         <v>159</v>
       </c>
@@ -26242,7 +27180,7 @@
       <c r="E160" t="s">
         <v>427</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="14" t="s">
         <v>665</v>
       </c>
       <c r="G160" t="s">
@@ -26260,7 +27198,7 @@
       <c r="K160" t="s">
         <v>2002</v>
       </c>
-      <c r="L160" t="s">
+      <c r="L160" s="3" t="s">
         <v>2267</v>
       </c>
       <c r="M160" t="s">
@@ -26297,7 +27235,7 @@
         <v>4089</v>
       </c>
       <c r="X160">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y160">
         <v>1</v>
@@ -26309,7 +27247,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" ht="19.95" customHeight="1">
       <c r="A161">
         <v>160</v>
       </c>
@@ -26325,7 +27263,7 @@
       <c r="E161" t="s">
         <v>428</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="14" t="s">
         <v>666</v>
       </c>
       <c r="G161" t="s">
@@ -26343,7 +27281,7 @@
       <c r="K161" t="s">
         <v>2003</v>
       </c>
-      <c r="L161" t="s">
+      <c r="L161" s="3" t="s">
         <v>2268</v>
       </c>
       <c r="M161" t="s">
@@ -26392,7 +27330,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" ht="19.95" customHeight="1">
       <c r="A162">
         <v>161</v>
       </c>
@@ -26408,7 +27346,7 @@
       <c r="E162" t="s">
         <v>429</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="14" t="s">
         <v>667</v>
       </c>
       <c r="G162" t="s">
@@ -26426,7 +27364,7 @@
       <c r="K162" t="s">
         <v>2004</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L162" s="3" t="s">
         <v>2269</v>
       </c>
       <c r="M162" t="s">
@@ -26475,7 +27413,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" ht="19.95" customHeight="1">
       <c r="A163">
         <v>162</v>
       </c>
@@ -26491,7 +27429,7 @@
       <c r="E163" t="s">
         <v>430</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="14" t="s">
         <v>668</v>
       </c>
       <c r="G163" t="s">
@@ -26509,7 +27447,7 @@
       <c r="K163" t="s">
         <v>2005</v>
       </c>
-      <c r="L163" t="s">
+      <c r="L163" s="3" t="s">
         <v>2270</v>
       </c>
       <c r="M163" t="s">
@@ -26558,7 +27496,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" ht="19.95" customHeight="1">
       <c r="A164">
         <v>163</v>
       </c>
@@ -26574,7 +27512,7 @@
       <c r="E164" t="s">
         <v>431</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="14" t="s">
         <v>669</v>
       </c>
       <c r="G164" t="s">
@@ -26592,7 +27530,7 @@
       <c r="K164" t="s">
         <v>2006</v>
       </c>
-      <c r="L164" t="s">
+      <c r="L164" s="3" t="s">
         <v>2271</v>
       </c>
       <c r="M164" t="s">
@@ -26641,7 +27579,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" ht="19.95" customHeight="1">
       <c r="A165">
         <v>164</v>
       </c>
@@ -26657,7 +27595,7 @@
       <c r="E165" t="s">
         <v>378</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="14" t="s">
         <v>670</v>
       </c>
       <c r="G165" t="s">
@@ -26675,7 +27613,7 @@
       <c r="K165" t="s">
         <v>2007</v>
       </c>
-      <c r="L165" t="s">
+      <c r="L165" s="3" t="s">
         <v>2272</v>
       </c>
       <c r="M165" t="s">
@@ -26724,7 +27662,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" ht="19.95" customHeight="1">
       <c r="A166">
         <v>165</v>
       </c>
@@ -26740,7 +27678,7 @@
       <c r="E166" t="s">
         <v>432</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="14" t="s">
         <v>671</v>
       </c>
       <c r="G166" t="s">
@@ -26758,7 +27696,7 @@
       <c r="K166" t="s">
         <v>2008</v>
       </c>
-      <c r="L166" t="s">
+      <c r="L166" s="3" t="s">
         <v>2273</v>
       </c>
       <c r="M166" t="s">
@@ -26807,7 +27745,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" ht="19.95" customHeight="1">
       <c r="A167">
         <v>166</v>
       </c>
@@ -26823,7 +27761,7 @@
       <c r="E167" t="s">
         <v>432</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="14" t="s">
         <v>671</v>
       </c>
       <c r="G167" t="s">
@@ -26841,7 +27779,7 @@
       <c r="K167" t="s">
         <v>2008</v>
       </c>
-      <c r="L167" t="s">
+      <c r="L167" s="3" t="s">
         <v>2273</v>
       </c>
       <c r="M167" t="s">
@@ -26890,7 +27828,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" ht="19.95" customHeight="1">
       <c r="A168">
         <v>167</v>
       </c>
@@ -26906,7 +27844,7 @@
       <c r="E168" t="s">
         <v>433</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="14" t="s">
         <v>672</v>
       </c>
       <c r="G168" t="s">
@@ -26924,7 +27862,7 @@
       <c r="K168" t="s">
         <v>2009</v>
       </c>
-      <c r="L168" t="s">
+      <c r="L168" s="3" t="s">
         <v>2274</v>
       </c>
       <c r="M168" t="s">
@@ -26973,7 +27911,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" ht="19.95" customHeight="1">
       <c r="A169">
         <v>168</v>
       </c>
@@ -26989,7 +27927,7 @@
       <c r="E169" t="s">
         <v>434</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="14" t="s">
         <v>673</v>
       </c>
       <c r="G169" t="s">
@@ -27007,7 +27945,7 @@
       <c r="K169" t="s">
         <v>2010</v>
       </c>
-      <c r="L169" t="s">
+      <c r="L169" s="3" t="s">
         <v>2275</v>
       </c>
       <c r="M169" t="s">
@@ -27056,7 +27994,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" ht="19.95" customHeight="1">
       <c r="A170">
         <v>169</v>
       </c>
@@ -27072,7 +28010,7 @@
       <c r="E170" t="s">
         <v>435</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="14" t="s">
         <v>674</v>
       </c>
       <c r="G170" t="s">
@@ -27090,7 +28028,7 @@
       <c r="K170" t="s">
         <v>2011</v>
       </c>
-      <c r="L170" t="s">
+      <c r="L170" s="3" t="s">
         <v>2276</v>
       </c>
       <c r="M170" t="s">
@@ -27139,7 +28077,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" ht="19.95" customHeight="1">
       <c r="A171">
         <v>170</v>
       </c>
@@ -27155,7 +28093,7 @@
       <c r="E171" t="s">
         <v>436</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="14" t="s">
         <v>675</v>
       </c>
       <c r="G171" t="s">
@@ -27173,7 +28111,7 @@
       <c r="K171" t="s">
         <v>2012</v>
       </c>
-      <c r="L171" t="s">
+      <c r="L171" s="3" t="s">
         <v>2277</v>
       </c>
       <c r="M171" t="s">
@@ -27222,7 +28160,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" ht="19.95" customHeight="1">
       <c r="A172">
         <v>171</v>
       </c>
@@ -27238,7 +28176,7 @@
       <c r="E172" t="s">
         <v>437</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="14" t="s">
         <v>676</v>
       </c>
       <c r="G172" t="s">
@@ -27256,7 +28194,7 @@
       <c r="K172" t="s">
         <v>2013</v>
       </c>
-      <c r="L172" t="s">
+      <c r="L172" s="3" t="s">
         <v>2278</v>
       </c>
       <c r="M172" t="s">
@@ -27305,7 +28243,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" ht="19.95" customHeight="1">
       <c r="A173">
         <v>172</v>
       </c>
@@ -27321,7 +28259,7 @@
       <c r="E173" t="s">
         <v>438</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="14" t="s">
         <v>677</v>
       </c>
       <c r="G173" t="s">
@@ -27339,7 +28277,7 @@
       <c r="K173" t="s">
         <v>2014</v>
       </c>
-      <c r="L173" t="s">
+      <c r="L173" s="3" t="s">
         <v>2279</v>
       </c>
       <c r="M173" t="s">
@@ -27388,7 +28326,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" ht="19.95" customHeight="1">
       <c r="A174">
         <v>173</v>
       </c>
@@ -27404,7 +28342,7 @@
       <c r="E174" t="s">
         <v>439</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="14" t="s">
         <v>678</v>
       </c>
       <c r="G174" t="s">
@@ -27422,7 +28360,7 @@
       <c r="K174" t="s">
         <v>2015</v>
       </c>
-      <c r="L174" t="s">
+      <c r="L174" s="3" t="s">
         <v>2280</v>
       </c>
       <c r="M174" t="s">
@@ -27471,7 +28409,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" ht="19.95" customHeight="1">
       <c r="A175">
         <v>174</v>
       </c>
@@ -27487,7 +28425,7 @@
       <c r="E175" t="s">
         <v>440</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="14" t="s">
         <v>679</v>
       </c>
       <c r="G175" t="s">
@@ -27505,7 +28443,7 @@
       <c r="K175" t="s">
         <v>2016</v>
       </c>
-      <c r="L175" t="s">
+      <c r="L175" s="3" t="s">
         <v>2281</v>
       </c>
       <c r="M175" t="s">
@@ -27554,7 +28492,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" ht="19.95" customHeight="1">
       <c r="A176">
         <v>175</v>
       </c>
@@ -27570,7 +28508,7 @@
       <c r="E176" t="s">
         <v>345</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="14" t="s">
         <v>680</v>
       </c>
       <c r="G176" t="s">
@@ -27588,7 +28526,7 @@
       <c r="K176" t="s">
         <v>2017</v>
       </c>
-      <c r="L176" t="s">
+      <c r="L176" s="3" t="s">
         <v>2282</v>
       </c>
       <c r="M176" t="s">
@@ -27637,7 +28575,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" ht="19.95" customHeight="1">
       <c r="A177">
         <v>176</v>
       </c>
@@ -27653,7 +28591,7 @@
       <c r="E177" t="s">
         <v>441</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="14" t="s">
         <v>681</v>
       </c>
       <c r="G177" t="s">
@@ -27671,7 +28609,7 @@
       <c r="K177" t="s">
         <v>2018</v>
       </c>
-      <c r="L177" t="s">
+      <c r="L177" s="3" t="s">
         <v>2283</v>
       </c>
       <c r="M177" t="s">
@@ -27720,7 +28658,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" ht="19.95" customHeight="1">
       <c r="A178">
         <v>177</v>
       </c>
@@ -27736,7 +28674,7 @@
       <c r="E178" t="s">
         <v>442</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="14" t="s">
         <v>682</v>
       </c>
       <c r="G178" t="s">
@@ -27754,7 +28692,7 @@
       <c r="K178" t="s">
         <v>2019</v>
       </c>
-      <c r="L178" t="s">
+      <c r="L178" s="3" t="s">
         <v>2284</v>
       </c>
       <c r="M178" t="s">
@@ -27791,7 +28729,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" ht="19.95" customHeight="1">
       <c r="A179">
         <v>178</v>
       </c>
@@ -27807,7 +28745,7 @@
       <c r="E179" t="s">
         <v>372</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="14" t="s">
         <v>683</v>
       </c>
       <c r="G179" t="s">
@@ -27825,7 +28763,7 @@
       <c r="K179" t="s">
         <v>2020</v>
       </c>
-      <c r="L179" t="s">
+      <c r="L179" s="3" t="s">
         <v>2285</v>
       </c>
       <c r="M179" t="s">
@@ -27874,7 +28812,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" ht="19.95" customHeight="1">
       <c r="A180">
         <v>179</v>
       </c>
@@ -27890,7 +28828,7 @@
       <c r="E180" t="s">
         <v>443</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="14" t="s">
         <v>684</v>
       </c>
       <c r="G180" t="s">
@@ -27908,7 +28846,7 @@
       <c r="K180" t="s">
         <v>2021</v>
       </c>
-      <c r="L180" t="s">
+      <c r="L180" s="3" t="s">
         <v>2286</v>
       </c>
       <c r="M180" t="s">
@@ -27957,7 +28895,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="181" spans="1:27">
+    <row r="181" spans="1:27" ht="19.95" customHeight="1">
       <c r="A181">
         <v>180</v>
       </c>
@@ -27973,7 +28911,7 @@
       <c r="E181" t="s">
         <v>378</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="14" t="s">
         <v>685</v>
       </c>
       <c r="G181" t="s">
@@ -27991,7 +28929,7 @@
       <c r="K181" t="s">
         <v>2022</v>
       </c>
-      <c r="L181" t="s">
+      <c r="L181" s="3" t="s">
         <v>2287</v>
       </c>
       <c r="M181" t="s">
@@ -28040,7 +28978,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="182" spans="1:27">
+    <row r="182" spans="1:27" ht="19.95" customHeight="1">
       <c r="A182">
         <v>181</v>
       </c>
@@ -28056,7 +28994,7 @@
       <c r="E182" t="s">
         <v>372</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="14" t="s">
         <v>686</v>
       </c>
       <c r="G182" t="s">
@@ -28074,7 +29012,7 @@
       <c r="K182" t="s">
         <v>2023</v>
       </c>
-      <c r="L182" t="s">
+      <c r="L182" s="3" t="s">
         <v>2288</v>
       </c>
       <c r="M182" t="s">
@@ -28111,7 +29049,7 @@
         <v>4108</v>
       </c>
       <c r="X182">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y182">
         <v>1</v>
@@ -28123,7 +29061,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="183" spans="1:27">
+    <row r="183" spans="1:27" ht="19.95" customHeight="1">
       <c r="A183">
         <v>182</v>
       </c>
@@ -28139,7 +29077,7 @@
       <c r="E183" t="s">
         <v>444</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="14" t="s">
         <v>687</v>
       </c>
       <c r="G183" t="s">
@@ -28157,7 +29095,7 @@
       <c r="K183" t="s">
         <v>2024</v>
       </c>
-      <c r="L183" t="s">
+      <c r="L183" s="3" t="s">
         <v>2289</v>
       </c>
       <c r="M183" t="s">
@@ -28206,7 +29144,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" ht="19.95" customHeight="1">
       <c r="A184">
         <v>183</v>
       </c>
@@ -28222,7 +29160,7 @@
       <c r="E184" t="s">
         <v>345</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="14" t="s">
         <v>688</v>
       </c>
       <c r="G184" t="s">
@@ -28240,7 +29178,7 @@
       <c r="K184" t="s">
         <v>2025</v>
       </c>
-      <c r="L184" t="s">
+      <c r="L184" s="3" t="s">
         <v>2290</v>
       </c>
       <c r="M184" t="s">
@@ -28289,7 +29227,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="185" spans="1:27">
+    <row r="185" spans="1:27" ht="19.95" customHeight="1">
       <c r="A185">
         <v>184</v>
       </c>
@@ -28305,7 +29243,7 @@
       <c r="E185" t="s">
         <v>345</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="14" t="s">
         <v>689</v>
       </c>
       <c r="G185" t="s">
@@ -28323,7 +29261,7 @@
       <c r="K185" t="s">
         <v>2026</v>
       </c>
-      <c r="L185" t="s">
+      <c r="L185" s="3" t="s">
         <v>2291</v>
       </c>
       <c r="M185" t="s">
@@ -28372,7 +29310,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" ht="19.95" customHeight="1">
       <c r="A186">
         <v>185</v>
       </c>
@@ -28388,7 +29326,7 @@
       <c r="E186" t="s">
         <v>445</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="14" t="s">
         <v>690</v>
       </c>
       <c r="G186" t="s">
@@ -28406,7 +29344,7 @@
       <c r="K186" t="s">
         <v>2027</v>
       </c>
-      <c r="L186" t="s">
+      <c r="L186" s="3" t="s">
         <v>2292</v>
       </c>
       <c r="M186" t="s">
@@ -28455,7 +29393,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="187" spans="1:27">
+    <row r="187" spans="1:27" ht="19.95" customHeight="1">
       <c r="A187">
         <v>186</v>
       </c>
@@ -28471,7 +29409,7 @@
       <c r="E187" t="s">
         <v>446</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="14" t="s">
         <v>691</v>
       </c>
       <c r="G187" t="s">
@@ -28489,7 +29427,7 @@
       <c r="K187" t="s">
         <v>2028</v>
       </c>
-      <c r="L187" t="s">
+      <c r="L187" s="3" t="s">
         <v>2293</v>
       </c>
       <c r="M187" t="s">
@@ -28538,7 +29476,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="188" spans="1:27">
+    <row r="188" spans="1:27" ht="19.95" customHeight="1">
       <c r="A188">
         <v>187</v>
       </c>
@@ -28554,7 +29492,7 @@
       <c r="E188" t="s">
         <v>447</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="14" t="s">
         <v>692</v>
       </c>
       <c r="G188" t="s">
@@ -28572,7 +29510,7 @@
       <c r="K188" t="s">
         <v>2029</v>
       </c>
-      <c r="L188" t="s">
+      <c r="L188" s="3" t="s">
         <v>2294</v>
       </c>
       <c r="M188" t="s">
@@ -28621,7 +29559,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="189" spans="1:27">
+    <row r="189" spans="1:27" ht="19.95" customHeight="1">
       <c r="A189">
         <v>188</v>
       </c>
@@ -28637,7 +29575,7 @@
       <c r="E189" t="s">
         <v>448</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="14" t="s">
         <v>693</v>
       </c>
       <c r="G189" t="s">
@@ -28655,7 +29593,7 @@
       <c r="K189" t="s">
         <v>2030</v>
       </c>
-      <c r="L189" t="s">
+      <c r="L189" s="3" t="s">
         <v>2295</v>
       </c>
       <c r="M189" t="s">
@@ -28704,7 +29642,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="190" spans="1:27">
+    <row r="190" spans="1:27" ht="19.95" customHeight="1">
       <c r="A190">
         <v>189</v>
       </c>
@@ -28720,7 +29658,7 @@
       <c r="E190" t="s">
         <v>449</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="14" t="s">
         <v>694</v>
       </c>
       <c r="G190" t="s">
@@ -28738,7 +29676,7 @@
       <c r="K190" t="s">
         <v>2031</v>
       </c>
-      <c r="L190" t="s">
+      <c r="L190" s="3" t="s">
         <v>2296</v>
       </c>
       <c r="M190" t="s">
@@ -28787,7 +29725,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" ht="19.95" customHeight="1">
       <c r="A191">
         <v>190</v>
       </c>
@@ -28803,7 +29741,7 @@
       <c r="E191" t="s">
         <v>450</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="14" t="s">
         <v>695</v>
       </c>
       <c r="G191" t="s">
@@ -28821,7 +29759,7 @@
       <c r="K191" t="s">
         <v>2032</v>
       </c>
-      <c r="L191" t="s">
+      <c r="L191" s="3" t="s">
         <v>2297</v>
       </c>
       <c r="M191" t="s">
@@ -28870,7 +29808,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" ht="19.95" customHeight="1">
       <c r="A192">
         <v>191</v>
       </c>
@@ -28886,7 +29824,7 @@
       <c r="E192" t="s">
         <v>451</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="14" t="s">
         <v>696</v>
       </c>
       <c r="G192" t="s">
@@ -28904,7 +29842,7 @@
       <c r="K192" t="s">
         <v>2033</v>
       </c>
-      <c r="L192" t="s">
+      <c r="L192" s="3" t="s">
         <v>2298</v>
       </c>
       <c r="M192" t="s">
@@ -28953,7 +29891,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" ht="19.95" customHeight="1">
       <c r="A193">
         <v>192</v>
       </c>
@@ -28969,7 +29907,7 @@
       <c r="E193" t="s">
         <v>374</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="14" t="s">
         <v>697</v>
       </c>
       <c r="G193" t="s">
@@ -28987,7 +29925,7 @@
       <c r="K193" t="s">
         <v>2034</v>
       </c>
-      <c r="L193" t="s">
+      <c r="L193" s="3" t="s">
         <v>2299</v>
       </c>
       <c r="M193" t="s">
@@ -29036,7 +29974,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" ht="19.95" customHeight="1">
       <c r="A194">
         <v>193</v>
       </c>
@@ -29052,7 +29990,7 @@
       <c r="E194" t="s">
         <v>452</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="14" t="s">
         <v>698</v>
       </c>
       <c r="G194" t="s">
@@ -29070,7 +30008,7 @@
       <c r="K194" t="s">
         <v>2035</v>
       </c>
-      <c r="L194" t="s">
+      <c r="L194" s="3" t="s">
         <v>2300</v>
       </c>
       <c r="M194" t="s">
@@ -29107,7 +30045,7 @@
         <v>4120</v>
       </c>
       <c r="X194">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y194">
         <v>1</v>
@@ -29119,7 +30057,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" ht="19.95" customHeight="1">
       <c r="A195">
         <v>194</v>
       </c>
@@ -29135,7 +30073,7 @@
       <c r="E195" t="s">
         <v>374</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="14" t="s">
         <v>699</v>
       </c>
       <c r="G195" t="s">
@@ -29153,7 +30091,7 @@
       <c r="K195" t="s">
         <v>2036</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L195" s="3" t="s">
         <v>2301</v>
       </c>
       <c r="M195" t="s">
@@ -29202,7 +30140,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" ht="19.95" customHeight="1">
       <c r="A196">
         <v>195</v>
       </c>
@@ -29218,7 +30156,7 @@
       <c r="E196" t="s">
         <v>453</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="14" t="s">
         <v>700</v>
       </c>
       <c r="G196" t="s">
@@ -29236,7 +30174,7 @@
       <c r="K196" t="s">
         <v>2037</v>
       </c>
-      <c r="L196" t="s">
+      <c r="L196" s="3" t="s">
         <v>2302</v>
       </c>
       <c r="M196" t="s">
@@ -29285,7 +30223,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" ht="19.95" customHeight="1">
       <c r="A197">
         <v>196</v>
       </c>
@@ -29301,7 +30239,7 @@
       <c r="E197" t="s">
         <v>454</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="14" t="s">
         <v>701</v>
       </c>
       <c r="G197" t="s">
@@ -29319,7 +30257,7 @@
       <c r="K197" t="s">
         <v>1771</v>
       </c>
-      <c r="L197" t="s">
+      <c r="L197" s="3" t="s">
         <v>2303</v>
       </c>
       <c r="M197" t="s">
@@ -29368,7 +30306,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" ht="19.95" customHeight="1">
       <c r="A198">
         <v>197</v>
       </c>
@@ -29384,7 +30322,7 @@
       <c r="E198" t="s">
         <v>455</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="14" t="s">
         <v>702</v>
       </c>
       <c r="G198" t="s">
@@ -29402,7 +30340,7 @@
       <c r="K198" t="s">
         <v>2038</v>
       </c>
-      <c r="L198" t="s">
+      <c r="L198" s="3" t="s">
         <v>2304</v>
       </c>
       <c r="M198" t="s">
@@ -29439,7 +30377,7 @@
         <v>4124</v>
       </c>
       <c r="X198">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y198">
         <v>1</v>
@@ -29451,7 +30389,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" ht="19.95" customHeight="1">
       <c r="A199">
         <v>198</v>
       </c>
@@ -29467,7 +30405,7 @@
       <c r="E199" t="s">
         <v>330</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="14" t="s">
         <v>703</v>
       </c>
       <c r="G199" t="s">
@@ -29485,7 +30423,7 @@
       <c r="K199" t="s">
         <v>2039</v>
       </c>
-      <c r="L199" t="s">
+      <c r="L199" s="3" t="s">
         <v>2305</v>
       </c>
       <c r="M199" t="s">
@@ -29534,7 +30472,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" ht="19.95" customHeight="1">
       <c r="A200">
         <v>199</v>
       </c>
@@ -29550,7 +30488,7 @@
       <c r="E200" t="s">
         <v>330</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="14" t="s">
         <v>704</v>
       </c>
       <c r="G200" t="s">
@@ -29568,7 +30506,7 @@
       <c r="K200" t="s">
         <v>2040</v>
       </c>
-      <c r="L200" t="s">
+      <c r="L200" s="3" t="s">
         <v>2306</v>
       </c>
       <c r="M200" t="s">
@@ -29617,7 +30555,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" ht="19.95" customHeight="1">
       <c r="A201">
         <v>200</v>
       </c>
@@ -29633,7 +30571,7 @@
       <c r="E201" t="s">
         <v>374</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="14" t="s">
         <v>705</v>
       </c>
       <c r="G201" t="s">
@@ -29651,7 +30589,7 @@
       <c r="K201" t="s">
         <v>2041</v>
       </c>
-      <c r="L201" t="s">
+      <c r="L201" s="3" t="s">
         <v>2307</v>
       </c>
       <c r="M201" t="s">
@@ -29700,7 +30638,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" ht="19.95" customHeight="1">
       <c r="A202">
         <v>201</v>
       </c>
@@ -29716,7 +30654,7 @@
       <c r="E202" t="s">
         <v>374</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="14" t="s">
         <v>706</v>
       </c>
       <c r="G202" t="s">
@@ -29734,7 +30672,7 @@
       <c r="K202" t="s">
         <v>2042</v>
       </c>
-      <c r="L202" t="s">
+      <c r="L202" s="3" t="s">
         <v>2308</v>
       </c>
       <c r="M202" t="s">
@@ -29783,7 +30721,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="203" spans="1:27">
+    <row r="203" spans="1:27" ht="19.95" customHeight="1">
       <c r="A203">
         <v>202</v>
       </c>
@@ -29799,7 +30737,7 @@
       <c r="E203" t="s">
         <v>456</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="14" t="s">
         <v>707</v>
       </c>
       <c r="G203" t="s">
@@ -29817,7 +30755,7 @@
       <c r="K203" t="s">
         <v>2043</v>
       </c>
-      <c r="L203" t="s">
+      <c r="L203" s="3" t="s">
         <v>2309</v>
       </c>
       <c r="M203" t="s">
@@ -29866,7 +30804,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" ht="19.95" customHeight="1">
       <c r="A204">
         <v>203</v>
       </c>
@@ -29882,7 +30820,7 @@
       <c r="E204" t="s">
         <v>457</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="14" t="s">
         <v>708</v>
       </c>
       <c r="G204" t="s">
@@ -29900,7 +30838,7 @@
       <c r="K204" t="s">
         <v>2044</v>
       </c>
-      <c r="L204" t="s">
+      <c r="L204" s="3" t="s">
         <v>2310</v>
       </c>
       <c r="M204" t="s">
@@ -29949,7 +30887,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="205" spans="1:27">
+    <row r="205" spans="1:27" ht="19.95" customHeight="1">
       <c r="A205">
         <v>204</v>
       </c>
@@ -29965,7 +30903,7 @@
       <c r="E205" t="s">
         <v>458</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="14" t="s">
         <v>709</v>
       </c>
       <c r="G205" t="s">
@@ -29983,7 +30921,7 @@
       <c r="K205" t="s">
         <v>2045</v>
       </c>
-      <c r="L205" t="s">
+      <c r="L205" s="3" t="s">
         <v>2311</v>
       </c>
       <c r="M205" t="s">
@@ -30032,7 +30970,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="206" spans="1:27">
+    <row r="206" spans="1:27" ht="19.95" customHeight="1">
       <c r="A206">
         <v>205</v>
       </c>
@@ -30048,7 +30986,7 @@
       <c r="E206" t="s">
         <v>459</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="14" t="s">
         <v>710</v>
       </c>
       <c r="G206" t="s">
@@ -30066,7 +31004,7 @@
       <c r="K206" t="s">
         <v>2046</v>
       </c>
-      <c r="L206" t="s">
+      <c r="L206" s="3" t="s">
         <v>2312</v>
       </c>
       <c r="M206" t="s">
@@ -30115,7 +31053,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" ht="19.95" customHeight="1">
       <c r="A207">
         <v>206</v>
       </c>
@@ -30131,7 +31069,7 @@
       <c r="E207" t="s">
         <v>459</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="14" t="s">
         <v>710</v>
       </c>
       <c r="G207" t="s">
@@ -30149,7 +31087,7 @@
       <c r="K207" t="s">
         <v>2046</v>
       </c>
-      <c r="L207" t="s">
+      <c r="L207" s="3" t="s">
         <v>2312</v>
       </c>
       <c r="M207" t="s">
@@ -30198,7 +31136,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" ht="19.95" customHeight="1">
       <c r="A208">
         <v>207</v>
       </c>
@@ -30214,7 +31152,7 @@
       <c r="E208" t="s">
         <v>460</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="14" t="s">
         <v>711</v>
       </c>
       <c r="G208" t="s">
@@ -30232,7 +31170,7 @@
       <c r="K208" t="s">
         <v>2047</v>
       </c>
-      <c r="L208" t="s">
+      <c r="L208" s="3" t="s">
         <v>2313</v>
       </c>
       <c r="M208" t="s">
@@ -30281,7 +31219,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:27" ht="19.95" customHeight="1">
       <c r="A209">
         <v>208</v>
       </c>
@@ -30297,7 +31235,7 @@
       <c r="E209" t="s">
         <v>461</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="14" t="s">
         <v>712</v>
       </c>
       <c r="G209" t="s">
@@ -30315,7 +31253,7 @@
       <c r="K209" t="s">
         <v>2048</v>
       </c>
-      <c r="L209" t="s">
+      <c r="L209" s="3" t="s">
         <v>2314</v>
       </c>
       <c r="M209" t="s">
@@ -30364,7 +31302,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="210" spans="1:27">
+    <row r="210" spans="1:27" ht="19.95" customHeight="1">
       <c r="A210">
         <v>209</v>
       </c>
@@ -30380,7 +31318,7 @@
       <c r="E210" t="s">
         <v>462</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="14" t="s">
         <v>713</v>
       </c>
       <c r="G210" t="s">
@@ -30398,7 +31336,7 @@
       <c r="K210" t="s">
         <v>2049</v>
       </c>
-      <c r="L210" t="s">
+      <c r="L210" s="3" t="s">
         <v>2315</v>
       </c>
       <c r="M210" t="s">
@@ -30447,7 +31385,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" ht="19.95" customHeight="1">
       <c r="A211">
         <v>210</v>
       </c>
@@ -30463,7 +31401,7 @@
       <c r="E211" t="s">
         <v>463</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="14" t="s">
         <v>714</v>
       </c>
       <c r="G211" t="s">
@@ -30481,7 +31419,7 @@
       <c r="K211" t="s">
         <v>2050</v>
       </c>
-      <c r="L211" t="s">
+      <c r="L211" s="3" t="s">
         <v>2316</v>
       </c>
       <c r="M211" t="s">
@@ -30530,7 +31468,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:27" ht="19.95" customHeight="1">
       <c r="A212">
         <v>211</v>
       </c>
@@ -30546,7 +31484,7 @@
       <c r="E212" t="s">
         <v>345</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="14" t="s">
         <v>715</v>
       </c>
       <c r="G212" t="s">
@@ -30564,7 +31502,7 @@
       <c r="K212" t="s">
         <v>2051</v>
       </c>
-      <c r="L212" t="s">
+      <c r="L212" s="3" t="s">
         <v>2317</v>
       </c>
       <c r="M212" t="s">
@@ -30613,7 +31551,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:27" ht="19.95" customHeight="1">
       <c r="A213">
         <v>212</v>
       </c>
@@ -30629,7 +31567,7 @@
       <c r="E213" t="s">
         <v>374</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="14" t="s">
         <v>716</v>
       </c>
       <c r="G213" t="s">
@@ -30647,7 +31585,7 @@
       <c r="K213" t="s">
         <v>2052</v>
       </c>
-      <c r="L213" t="s">
+      <c r="L213" s="3" t="s">
         <v>2318</v>
       </c>
       <c r="M213" t="s">
@@ -30696,7 +31634,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:27" ht="19.95" customHeight="1">
       <c r="A214">
         <v>213</v>
       </c>
@@ -30712,7 +31650,7 @@
       <c r="E214" t="s">
         <v>358</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="14" t="s">
         <v>717</v>
       </c>
       <c r="G214" t="s">
@@ -30730,7 +31668,7 @@
       <c r="K214" t="s">
         <v>2053</v>
       </c>
-      <c r="L214" t="s">
+      <c r="L214" s="3" t="s">
         <v>2319</v>
       </c>
       <c r="M214" t="s">
@@ -30779,7 +31717,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" ht="19.95" customHeight="1">
       <c r="A215">
         <v>214</v>
       </c>
@@ -30795,7 +31733,7 @@
       <c r="E215" t="s">
         <v>464</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="14" t="s">
         <v>718</v>
       </c>
       <c r="G215" t="s">
@@ -30813,7 +31751,7 @@
       <c r="K215" t="s">
         <v>2054</v>
       </c>
-      <c r="L215" t="s">
+      <c r="L215" s="3" t="s">
         <v>2320</v>
       </c>
       <c r="M215" t="s">
@@ -30862,7 +31800,7 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:27" ht="19.95" customHeight="1">
       <c r="A216">
         <v>215</v>
       </c>
@@ -30878,7 +31816,7 @@
       <c r="E216" t="s">
         <v>465</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="14" t="s">
         <v>719</v>
       </c>
       <c r="G216" t="s">
@@ -30896,7 +31834,7 @@
       <c r="K216" t="s">
         <v>2029</v>
       </c>
-      <c r="L216" t="s">
+      <c r="L216" s="3" t="s">
         <v>2321</v>
       </c>
       <c r="M216" t="s">
@@ -30945,7 +31883,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:27" ht="19.95" customHeight="1">
       <c r="A217">
         <v>216</v>
       </c>
@@ -30961,7 +31899,7 @@
       <c r="E217" t="s">
         <v>374</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="14" t="s">
         <v>720</v>
       </c>
       <c r="G217" t="s">
@@ -30979,7 +31917,7 @@
       <c r="K217" t="s">
         <v>2055</v>
       </c>
-      <c r="L217" t="s">
+      <c r="L217" s="3" t="s">
         <v>2322</v>
       </c>
       <c r="M217" t="s">
@@ -31028,7 +31966,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="218" spans="1:27">
+    <row r="218" spans="1:27" ht="19.95" customHeight="1">
       <c r="A218">
         <v>217</v>
       </c>
@@ -31044,7 +31982,7 @@
       <c r="E218" t="s">
         <v>466</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="14" t="s">
         <v>721</v>
       </c>
       <c r="G218" t="s">
@@ -31062,7 +32000,7 @@
       <c r="K218" t="s">
         <v>2056</v>
       </c>
-      <c r="L218" t="s">
+      <c r="L218" s="3" t="s">
         <v>2323</v>
       </c>
       <c r="M218" t="s">
@@ -31111,7 +32049,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" ht="19.95" customHeight="1">
       <c r="A219">
         <v>218</v>
       </c>
@@ -31127,7 +32065,7 @@
       <c r="E219" t="s">
         <v>467</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="14" t="s">
         <v>722</v>
       </c>
       <c r="G219" t="s">
@@ -31145,7 +32083,7 @@
       <c r="K219" t="s">
         <v>2057</v>
       </c>
-      <c r="L219" t="s">
+      <c r="L219" s="3" t="s">
         <v>2324</v>
       </c>
       <c r="M219" t="s">
@@ -31194,7 +32132,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" ht="19.95" customHeight="1">
       <c r="A220">
         <v>219</v>
       </c>
@@ -31210,7 +32148,7 @@
       <c r="E220" t="s">
         <v>468</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="14" t="s">
         <v>723</v>
       </c>
       <c r="G220" t="s">
@@ -31228,7 +32166,7 @@
       <c r="K220" t="s">
         <v>2058</v>
       </c>
-      <c r="L220" t="s">
+      <c r="L220" s="3" t="s">
         <v>2325</v>
       </c>
       <c r="M220" t="s">
@@ -31277,7 +32215,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="221" spans="1:27">
+    <row r="221" spans="1:27" ht="19.95" customHeight="1">
       <c r="A221">
         <v>220</v>
       </c>
@@ -31293,7 +32231,7 @@
       <c r="E221" t="s">
         <v>469</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="14" t="s">
         <v>724</v>
       </c>
       <c r="G221" t="s">
@@ -31311,7 +32249,7 @@
       <c r="K221" t="s">
         <v>2059</v>
       </c>
-      <c r="L221" t="s">
+      <c r="L221" s="3" t="s">
         <v>2326</v>
       </c>
       <c r="M221" t="s">
@@ -31360,7 +32298,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="222" spans="1:27">
+    <row r="222" spans="1:27" ht="19.95" customHeight="1">
       <c r="A222">
         <v>221</v>
       </c>
@@ -31376,7 +32314,7 @@
       <c r="E222" t="s">
         <v>470</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="14" t="s">
         <v>725</v>
       </c>
       <c r="G222" t="s">
@@ -31394,7 +32332,7 @@
       <c r="K222" t="s">
         <v>2060</v>
       </c>
-      <c r="L222" t="s">
+      <c r="L222" s="3" t="s">
         <v>2327</v>
       </c>
       <c r="M222" t="s">
@@ -31443,7 +32381,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="223" spans="1:27">
+    <row r="223" spans="1:27" ht="19.95" customHeight="1">
       <c r="A223">
         <v>222</v>
       </c>
@@ -31459,7 +32397,7 @@
       <c r="E223" t="s">
         <v>471</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="14" t="s">
         <v>726</v>
       </c>
       <c r="G223" t="s">
@@ -31477,7 +32415,7 @@
       <c r="K223" t="s">
         <v>2061</v>
       </c>
-      <c r="L223" t="s">
+      <c r="L223" s="3" t="s">
         <v>2328</v>
       </c>
       <c r="M223" t="s">
@@ -31526,7 +32464,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="224" spans="1:27">
+    <row r="224" spans="1:27" ht="19.95" customHeight="1">
       <c r="A224">
         <v>223</v>
       </c>
@@ -31542,7 +32480,7 @@
       <c r="E224" t="s">
         <v>472</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="14" t="s">
         <v>727</v>
       </c>
       <c r="G224" t="s">
@@ -31560,7 +32498,7 @@
       <c r="K224" t="s">
         <v>2062</v>
       </c>
-      <c r="L224" t="s">
+      <c r="L224" s="3" t="s">
         <v>2329</v>
       </c>
       <c r="M224" t="s">
@@ -31597,7 +32535,7 @@
         <v>4149</v>
       </c>
       <c r="X224">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y224">
         <v>1</v>
@@ -31609,7 +32547,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="225" spans="1:29">
+    <row r="225" spans="1:29" ht="19.95" customHeight="1">
       <c r="A225">
         <v>224</v>
       </c>
@@ -31625,7 +32563,7 @@
       <c r="E225" t="s">
         <v>473</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="14" t="s">
         <v>728</v>
       </c>
       <c r="G225" t="s">
@@ -31643,7 +32581,7 @@
       <c r="K225" t="s">
         <v>2063</v>
       </c>
-      <c r="L225" t="s">
+      <c r="L225" s="3" t="s">
         <v>2330</v>
       </c>
       <c r="M225" t="s">
@@ -31692,7 +32630,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="226" spans="1:29">
+    <row r="226" spans="1:29" ht="19.95" customHeight="1">
       <c r="A226">
         <v>225</v>
       </c>
@@ -31708,7 +32646,7 @@
       <c r="E226" t="s">
         <v>474</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="14" t="s">
         <v>729</v>
       </c>
       <c r="G226" t="s">
@@ -31726,7 +32664,7 @@
       <c r="K226" t="s">
         <v>2064</v>
       </c>
-      <c r="L226" t="s">
+      <c r="L226" s="3" t="s">
         <v>2331</v>
       </c>
       <c r="M226" t="s">
@@ -31775,7 +32713,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="227" spans="1:29">
+    <row r="227" spans="1:29" ht="19.95" customHeight="1">
       <c r="A227">
         <v>226</v>
       </c>
@@ -31791,7 +32729,7 @@
       <c r="E227" t="s">
         <v>475</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="14" t="s">
         <v>730</v>
       </c>
       <c r="G227" t="s">
@@ -31809,7 +32747,7 @@
       <c r="K227" t="s">
         <v>2065</v>
       </c>
-      <c r="L227" t="s">
+      <c r="L227" s="3" t="s">
         <v>2332</v>
       </c>
       <c r="M227" t="s">
@@ -31846,7 +32784,7 @@
         <v>4151</v>
       </c>
       <c r="X227">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y227">
         <v>1</v>
@@ -31861,7 +32799,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="228" spans="1:29">
+    <row r="228" spans="1:29" ht="19.95" customHeight="1">
       <c r="A228">
         <v>227</v>
       </c>
@@ -31877,7 +32815,7 @@
       <c r="E228" t="s">
         <v>374</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="14" t="s">
         <v>731</v>
       </c>
       <c r="G228" t="s">
@@ -31895,7 +32833,7 @@
       <c r="K228" t="s">
         <v>2066</v>
       </c>
-      <c r="L228" t="s">
+      <c r="L228" s="3" t="s">
         <v>2333</v>
       </c>
       <c r="M228" t="s">
@@ -31944,7 +32882,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="229" spans="1:29">
+    <row r="229" spans="1:29" ht="19.95" customHeight="1">
       <c r="A229">
         <v>228</v>
       </c>
@@ -31960,7 +32898,7 @@
       <c r="E229" t="s">
         <v>476</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="14" t="s">
         <v>732</v>
       </c>
       <c r="G229" t="s">
@@ -31978,7 +32916,7 @@
       <c r="K229" t="s">
         <v>2067</v>
       </c>
-      <c r="L229" t="s">
+      <c r="L229" s="3" t="s">
         <v>2334</v>
       </c>
       <c r="M229" t="s">
@@ -32027,7 +32965,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="230" spans="1:29">
+    <row r="230" spans="1:29" ht="19.95" customHeight="1">
       <c r="A230">
         <v>229</v>
       </c>
@@ -32043,7 +32981,7 @@
       <c r="E230" t="s">
         <v>476</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="14" t="s">
         <v>733</v>
       </c>
       <c r="G230" t="s">
@@ -32061,7 +32999,7 @@
       <c r="K230" t="s">
         <v>2068</v>
       </c>
-      <c r="L230" t="s">
+      <c r="L230" s="3" t="s">
         <v>2335</v>
       </c>
       <c r="M230" t="s">
@@ -32110,7 +33048,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="231" spans="1:29">
+    <row r="231" spans="1:29" ht="19.95" customHeight="1">
       <c r="A231">
         <v>230</v>
       </c>
@@ -32126,7 +33064,7 @@
       <c r="E231" t="s">
         <v>477</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="14" t="s">
         <v>734</v>
       </c>
       <c r="G231" t="s">
@@ -32144,7 +33082,7 @@
       <c r="K231" t="s">
         <v>2069</v>
       </c>
-      <c r="L231" t="s">
+      <c r="L231" s="3" t="s">
         <v>2336</v>
       </c>
       <c r="M231" t="s">
@@ -32193,7 +33131,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="232" spans="1:29">
+    <row r="232" spans="1:29" ht="19.95" customHeight="1">
       <c r="A232">
         <v>231</v>
       </c>
@@ -32209,7 +33147,7 @@
       <c r="E232" t="s">
         <v>478</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="14" t="s">
         <v>735</v>
       </c>
       <c r="G232" t="s">
@@ -32227,7 +33165,7 @@
       <c r="K232" t="s">
         <v>2070</v>
       </c>
-      <c r="L232" t="s">
+      <c r="L232" s="3" t="s">
         <v>2337</v>
       </c>
       <c r="M232" t="s">
@@ -32276,7 +33214,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="233" spans="1:29">
+    <row r="233" spans="1:29" ht="19.95" customHeight="1">
       <c r="A233">
         <v>232</v>
       </c>
@@ -32292,7 +33230,7 @@
       <c r="E233" t="s">
         <v>479</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="14" t="s">
         <v>736</v>
       </c>
       <c r="G233" t="s">
@@ -32310,7 +33248,7 @@
       <c r="K233" t="s">
         <v>2071</v>
       </c>
-      <c r="L233" t="s">
+      <c r="L233" s="3" t="s">
         <v>2338</v>
       </c>
       <c r="M233" t="s">
@@ -32359,7 +33297,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="234" spans="1:29">
+    <row r="234" spans="1:29" ht="19.95" customHeight="1">
       <c r="A234">
         <v>233</v>
       </c>
@@ -32375,7 +33313,7 @@
       <c r="E234" t="s">
         <v>480</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="14" t="s">
         <v>737</v>
       </c>
       <c r="G234" t="s">
@@ -32393,7 +33331,7 @@
       <c r="K234" t="s">
         <v>2072</v>
       </c>
-      <c r="L234" t="s">
+      <c r="L234" s="3" t="s">
         <v>2339</v>
       </c>
       <c r="M234" t="s">
@@ -32442,7 +33380,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="235" spans="1:29">
+    <row r="235" spans="1:29" ht="19.95" customHeight="1">
       <c r="A235">
         <v>234</v>
       </c>
@@ -32458,7 +33396,7 @@
       <c r="E235" t="s">
         <v>344</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="14" t="s">
         <v>738</v>
       </c>
       <c r="G235" t="s">
@@ -32476,7 +33414,7 @@
       <c r="K235" t="s">
         <v>2073</v>
       </c>
-      <c r="L235" t="s">
+      <c r="L235" s="3" t="s">
         <v>2340</v>
       </c>
       <c r="M235" t="s">
@@ -32525,7 +33463,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="236" spans="1:29">
+    <row r="236" spans="1:29" ht="19.95" customHeight="1">
       <c r="A236">
         <v>235</v>
       </c>
@@ -32541,7 +33479,7 @@
       <c r="E236" t="s">
         <v>344</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="14" t="s">
         <v>739</v>
       </c>
       <c r="G236" t="s">
@@ -32559,7 +33497,7 @@
       <c r="K236" t="s">
         <v>2074</v>
       </c>
-      <c r="L236" t="s">
+      <c r="L236" s="3" t="s">
         <v>2341</v>
       </c>
       <c r="M236" t="s">
@@ -32608,7 +33546,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="237" spans="1:29">
+    <row r="237" spans="1:29" ht="19.95" customHeight="1">
       <c r="A237">
         <v>236</v>
       </c>
@@ -32624,7 +33562,7 @@
       <c r="E237" t="s">
         <v>481</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="14" t="s">
         <v>740</v>
       </c>
       <c r="G237" t="s">
@@ -32688,7 +33626,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="238" spans="1:29">
+    <row r="238" spans="1:29" ht="19.95" customHeight="1">
       <c r="A238">
         <v>237</v>
       </c>
@@ -32704,7 +33642,7 @@
       <c r="E238" t="s">
         <v>482</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="14" t="s">
         <v>741</v>
       </c>
       <c r="G238" t="s">
@@ -32722,7 +33660,7 @@
       <c r="K238" t="s">
         <v>2076</v>
       </c>
-      <c r="L238" t="s">
+      <c r="L238" s="3" t="s">
         <v>2342</v>
       </c>
       <c r="M238" t="s">
@@ -32771,7 +33709,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="239" spans="1:29">
+    <row r="239" spans="1:29" ht="19.95" customHeight="1">
       <c r="A239">
         <v>238</v>
       </c>
@@ -32787,7 +33725,7 @@
       <c r="E239" t="s">
         <v>344</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239" s="14" t="s">
         <v>742</v>
       </c>
       <c r="G239" t="s">
@@ -32805,7 +33743,7 @@
       <c r="K239" t="s">
         <v>2077</v>
       </c>
-      <c r="L239" t="s">
+      <c r="L239" s="3" t="s">
         <v>2343</v>
       </c>
       <c r="M239" t="s">
@@ -32854,7 +33792,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="240" spans="1:29">
+    <row r="240" spans="1:29" ht="19.95" customHeight="1">
       <c r="A240">
         <v>239</v>
       </c>
@@ -32870,7 +33808,7 @@
       <c r="E240" t="s">
         <v>483</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" s="14" t="s">
         <v>743</v>
       </c>
       <c r="G240" t="s">
@@ -32888,7 +33826,7 @@
       <c r="K240" t="s">
         <v>2078</v>
       </c>
-      <c r="L240" t="s">
+      <c r="L240" s="3" t="s">
         <v>2344</v>
       </c>
       <c r="M240" t="s">
@@ -32937,7 +33875,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" ht="19.95" customHeight="1">
       <c r="A241">
         <v>240</v>
       </c>
@@ -32953,7 +33891,7 @@
       <c r="E241" t="s">
         <v>484</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="14" t="s">
         <v>744</v>
       </c>
       <c r="G241" t="s">
@@ -32971,7 +33909,7 @@
       <c r="K241" t="s">
         <v>2079</v>
       </c>
-      <c r="L241" t="s">
+      <c r="L241" s="3" t="s">
         <v>2345</v>
       </c>
       <c r="M241" t="s">
@@ -33020,7 +33958,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" ht="19.95" customHeight="1">
       <c r="A242">
         <v>241</v>
       </c>
@@ -33036,7 +33974,7 @@
       <c r="E242" t="s">
         <v>485</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="14" t="s">
         <v>745</v>
       </c>
       <c r="G242" t="s">
@@ -33054,7 +33992,7 @@
       <c r="K242" t="s">
         <v>2080</v>
       </c>
-      <c r="L242" t="s">
+      <c r="L242" s="3" t="s">
         <v>2346</v>
       </c>
       <c r="M242" t="s">
@@ -33103,7 +34041,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" ht="19.95" customHeight="1">
       <c r="A243">
         <v>242</v>
       </c>
@@ -33119,7 +34057,7 @@
       <c r="E243" t="s">
         <v>344</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="14" t="s">
         <v>746</v>
       </c>
       <c r="G243" t="s">
@@ -33137,7 +34075,7 @@
       <c r="K243" t="s">
         <v>2081</v>
       </c>
-      <c r="L243" t="s">
+      <c r="L243" s="3" t="s">
         <v>2347</v>
       </c>
       <c r="M243" t="s">
@@ -33174,7 +34112,7 @@
         <v>4167</v>
       </c>
       <c r="X243">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="Y243">
         <v>1</v>
@@ -33186,7 +34124,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" ht="19.95" customHeight="1">
       <c r="A244">
         <v>243</v>
       </c>
@@ -33202,7 +34140,7 @@
       <c r="E244" t="s">
         <v>486</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="14" t="s">
         <v>747</v>
       </c>
       <c r="G244" t="s">
@@ -33220,7 +34158,7 @@
       <c r="K244" t="s">
         <v>2082</v>
       </c>
-      <c r="L244" t="s">
+      <c r="L244" s="3" t="s">
         <v>2348</v>
       </c>
       <c r="M244" t="s">
@@ -33257,7 +34195,7 @@
         <v>4168</v>
       </c>
       <c r="X244">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Y244">
         <v>1</v>
@@ -33269,7 +34207,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" ht="19.95" customHeight="1">
       <c r="A245">
         <v>244</v>
       </c>
@@ -33285,7 +34223,7 @@
       <c r="E245" t="s">
         <v>487</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="14" t="s">
         <v>748</v>
       </c>
       <c r="G245" t="s">
@@ -33303,7 +34241,7 @@
       <c r="K245" t="s">
         <v>2083</v>
       </c>
-      <c r="L245" t="s">
+      <c r="L245" s="3" t="s">
         <v>2349</v>
       </c>
       <c r="M245" t="s">
@@ -33352,7 +34290,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" ht="19.95" customHeight="1">
       <c r="A246">
         <v>245</v>
       </c>
@@ -33368,7 +34306,7 @@
       <c r="E246" t="s">
         <v>358</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="14" t="s">
         <v>749</v>
       </c>
       <c r="G246" t="s">
@@ -33386,7 +34324,7 @@
       <c r="K246" t="s">
         <v>2084</v>
       </c>
-      <c r="L246" t="s">
+      <c r="L246" s="3" t="s">
         <v>2350</v>
       </c>
       <c r="M246" t="s">
@@ -33435,7 +34373,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" ht="19.95" customHeight="1">
       <c r="A247">
         <v>246</v>
       </c>
@@ -33451,7 +34389,7 @@
       <c r="E247" t="s">
         <v>488</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="14" t="s">
         <v>750</v>
       </c>
       <c r="G247" t="s">
@@ -33469,7 +34407,7 @@
       <c r="K247" t="s">
         <v>2085</v>
       </c>
-      <c r="L247" t="s">
+      <c r="L247" s="3" t="s">
         <v>2351</v>
       </c>
       <c r="M247" t="s">
@@ -33518,7 +34456,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" ht="19.95" customHeight="1">
       <c r="A248">
         <v>247</v>
       </c>
@@ -33534,7 +34472,7 @@
       <c r="E248" t="s">
         <v>489</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="14" t="s">
         <v>751</v>
       </c>
       <c r="G248" t="s">
@@ -33552,7 +34490,7 @@
       <c r="K248" t="s">
         <v>2086</v>
       </c>
-      <c r="L248" t="s">
+      <c r="L248" s="3" t="s">
         <v>2352</v>
       </c>
       <c r="M248" t="s">
@@ -33601,7 +34539,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" ht="19.95" customHeight="1">
       <c r="A249">
         <v>248</v>
       </c>
@@ -33617,7 +34555,7 @@
       <c r="E249" t="s">
         <v>490</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F249" s="14" t="s">
         <v>752</v>
       </c>
       <c r="G249" t="s">
@@ -33635,7 +34573,7 @@
       <c r="K249" t="s">
         <v>2087</v>
       </c>
-      <c r="L249" t="s">
+      <c r="L249" s="3" t="s">
         <v>2353</v>
       </c>
       <c r="M249" t="s">
@@ -33684,7 +34622,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" ht="19.95" customHeight="1">
       <c r="A250">
         <v>249</v>
       </c>
@@ -33700,7 +34638,7 @@
       <c r="E250" t="s">
         <v>491</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F250" s="14" t="s">
         <v>753</v>
       </c>
       <c r="G250" t="s">
@@ -33718,7 +34656,7 @@
       <c r="K250" t="s">
         <v>2088</v>
       </c>
-      <c r="L250" t="s">
+      <c r="L250" s="3" t="s">
         <v>2354</v>
       </c>
       <c r="M250" t="s">
@@ -33767,7 +34705,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" ht="19.95" customHeight="1">
       <c r="A251">
         <v>250</v>
       </c>
@@ -33783,7 +34721,7 @@
       <c r="E251" t="s">
         <v>492</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="14" t="s">
         <v>754</v>
       </c>
       <c r="G251" t="s">
@@ -33801,7 +34739,7 @@
       <c r="K251" t="s">
         <v>2089</v>
       </c>
-      <c r="L251" t="s">
+      <c r="L251" s="3" t="s">
         <v>2355</v>
       </c>
       <c r="M251" t="s">
@@ -33850,7 +34788,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" ht="19.95" customHeight="1">
       <c r="A252">
         <v>251</v>
       </c>
@@ -33866,7 +34804,7 @@
       <c r="E252" t="s">
         <v>493</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="14" t="s">
         <v>755</v>
       </c>
       <c r="G252" t="s">
@@ -33884,7 +34822,7 @@
       <c r="K252" t="s">
         <v>2090</v>
       </c>
-      <c r="L252" t="s">
+      <c r="L252" s="3" t="s">
         <v>2356</v>
       </c>
       <c r="M252" t="s">
@@ -33933,7 +34871,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" ht="19.95" customHeight="1">
       <c r="A253">
         <v>252</v>
       </c>
@@ -33949,7 +34887,7 @@
       <c r="E253" t="s">
         <v>372</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F253" s="14" t="s">
         <v>756</v>
       </c>
       <c r="G253" t="s">
@@ -33967,7 +34905,7 @@
       <c r="K253" t="s">
         <v>2091</v>
       </c>
-      <c r="L253" t="s">
+      <c r="L253" s="3" t="s">
         <v>2357</v>
       </c>
       <c r="M253" t="s">
@@ -34016,7 +34954,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" ht="19.95" customHeight="1">
       <c r="A254">
         <v>253</v>
       </c>
@@ -34032,7 +34970,7 @@
       <c r="E254" t="s">
         <v>372</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" s="14" t="s">
         <v>757</v>
       </c>
       <c r="G254" t="s">
@@ -34050,7 +34988,7 @@
       <c r="K254" t="s">
         <v>2092</v>
       </c>
-      <c r="L254" t="s">
+      <c r="L254" s="3" t="s">
         <v>2358</v>
       </c>
       <c r="M254" t="s">
@@ -34099,7 +35037,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" ht="19.95" customHeight="1">
       <c r="A255">
         <v>254</v>
       </c>
@@ -34115,7 +35053,7 @@
       <c r="E255" t="s">
         <v>494</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F255" s="14" t="s">
         <v>758</v>
       </c>
       <c r="G255" t="s">
@@ -34133,7 +35071,7 @@
       <c r="K255" t="s">
         <v>2093</v>
       </c>
-      <c r="L255" t="s">
+      <c r="L255" s="3" t="s">
         <v>2359</v>
       </c>
       <c r="M255" t="s">
@@ -34182,7 +35120,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" ht="19.95" customHeight="1">
       <c r="A256">
         <v>255</v>
       </c>
@@ -34198,7 +35136,7 @@
       <c r="E256" t="s">
         <v>495</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="14" t="s">
         <v>759</v>
       </c>
       <c r="G256" t="s">
@@ -34216,7 +35154,7 @@
       <c r="K256" t="s">
         <v>2094</v>
       </c>
-      <c r="L256" t="s">
+      <c r="L256" s="3" t="s">
         <v>2360</v>
       </c>
       <c r="M256" t="s">
@@ -34265,7 +35203,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" ht="19.95" customHeight="1">
       <c r="A257">
         <v>256</v>
       </c>
@@ -34281,7 +35219,7 @@
       <c r="E257" t="s">
         <v>330</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F257" s="14" t="s">
         <v>760</v>
       </c>
       <c r="G257" t="s">
@@ -34299,7 +35237,7 @@
       <c r="K257" t="s">
         <v>2095</v>
       </c>
-      <c r="L257" t="s">
+      <c r="L257" s="3" t="s">
         <v>2361</v>
       </c>
       <c r="M257" t="s">
@@ -34348,7 +35286,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" ht="19.95" customHeight="1">
       <c r="A258">
         <v>257</v>
       </c>
@@ -34364,7 +35302,7 @@
       <c r="E258" t="s">
         <v>330</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F258" s="14" t="s">
         <v>761</v>
       </c>
       <c r="G258" t="s">
@@ -34382,7 +35320,7 @@
       <c r="K258" t="s">
         <v>2096</v>
       </c>
-      <c r="L258" t="s">
+      <c r="L258" s="3" t="s">
         <v>2362</v>
       </c>
       <c r="M258" t="s">
@@ -34419,7 +35357,7 @@
         <v>4182</v>
       </c>
       <c r="X258">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="Y258">
         <v>1</v>
@@ -34431,7 +35369,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="259" spans="1:27">
+    <row r="259" spans="1:27" ht="19.95" customHeight="1">
       <c r="A259">
         <v>258</v>
       </c>
@@ -34447,7 +35385,7 @@
       <c r="E259" t="s">
         <v>496</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F259" s="14" t="s">
         <v>762</v>
       </c>
       <c r="G259" t="s">
@@ -34511,7 +35449,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="260" spans="1:27">
+    <row r="260" spans="1:27" ht="19.95" customHeight="1">
       <c r="A260">
         <v>259</v>
       </c>
@@ -34527,7 +35465,7 @@
       <c r="E260" t="s">
         <v>497</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="14" t="s">
         <v>763</v>
       </c>
       <c r="G260" t="s">
@@ -34545,7 +35483,7 @@
       <c r="K260" t="s">
         <v>2098</v>
       </c>
-      <c r="L260" t="s">
+      <c r="L260" s="3" t="s">
         <v>2363</v>
       </c>
       <c r="M260" t="s">
@@ -34594,7 +35532,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="261" spans="1:27">
+    <row r="261" spans="1:27" ht="19.95" customHeight="1">
       <c r="A261">
         <v>260</v>
       </c>
@@ -34610,7 +35548,7 @@
       <c r="E261" t="s">
         <v>498</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="14" t="s">
         <v>764</v>
       </c>
       <c r="G261" t="s">
@@ -34628,7 +35566,7 @@
       <c r="K261" t="s">
         <v>2099</v>
       </c>
-      <c r="L261" t="s">
+      <c r="L261" s="3" t="s">
         <v>2364</v>
       </c>
       <c r="M261" t="s">
@@ -34677,7 +35615,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="262" spans="1:27">
+    <row r="262" spans="1:27" ht="19.95" customHeight="1">
       <c r="A262">
         <v>261</v>
       </c>
@@ -34693,7 +35631,7 @@
       <c r="E262" t="s">
         <v>499</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" s="14" t="s">
         <v>765</v>
       </c>
       <c r="G262" t="s">
@@ -34711,7 +35649,7 @@
       <c r="K262" t="s">
         <v>2100</v>
       </c>
-      <c r="L262" t="s">
+      <c r="L262" s="3" t="s">
         <v>2365</v>
       </c>
       <c r="M262" t="s">
@@ -34760,7 +35698,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="263" spans="1:27">
+    <row r="263" spans="1:27" ht="19.95" customHeight="1">
       <c r="A263">
         <v>262</v>
       </c>
@@ -34776,7 +35714,7 @@
       <c r="E263" t="s">
         <v>330</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F263" s="14" t="s">
         <v>766</v>
       </c>
       <c r="G263" t="s">
@@ -34794,7 +35732,7 @@
       <c r="K263" t="s">
         <v>2101</v>
       </c>
-      <c r="L263" t="s">
+      <c r="L263" s="3" t="s">
         <v>2366</v>
       </c>
       <c r="M263" t="s">
@@ -34843,7 +35781,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="264" spans="1:27">
+    <row r="264" spans="1:27" ht="19.95" customHeight="1">
       <c r="A264">
         <v>263</v>
       </c>
@@ -34859,7 +35797,7 @@
       <c r="E264" t="s">
         <v>330</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="14" t="s">
         <v>767</v>
       </c>
       <c r="G264" t="s">
@@ -34877,7 +35815,7 @@
       <c r="K264" t="s">
         <v>2102</v>
       </c>
-      <c r="L264" t="s">
+      <c r="L264" s="3" t="s">
         <v>2367</v>
       </c>
       <c r="M264" t="s">
@@ -34926,7 +35864,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="265" spans="1:27">
+    <row r="265" spans="1:27" ht="19.95" customHeight="1">
       <c r="A265">
         <v>264</v>
       </c>
@@ -34942,7 +35880,7 @@
       <c r="E265" t="s">
         <v>500</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="14" t="s">
         <v>768</v>
       </c>
       <c r="G265" t="s">
@@ -34960,7 +35898,7 @@
       <c r="K265" t="s">
         <v>2103</v>
       </c>
-      <c r="L265" t="s">
+      <c r="L265" s="3" t="s">
         <v>2368</v>
       </c>
       <c r="M265" t="s">
@@ -35009,7 +35947,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="266" spans="1:27">
+    <row r="266" spans="1:27" ht="19.95" customHeight="1">
       <c r="A266">
         <v>265</v>
       </c>
@@ -35025,7 +35963,7 @@
       <c r="E266" t="s">
         <v>501</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="14" t="s">
         <v>769</v>
       </c>
       <c r="G266" t="s">
@@ -35043,7 +35981,7 @@
       <c r="K266" t="s">
         <v>2104</v>
       </c>
-      <c r="L266" t="s">
+      <c r="L266" s="3" t="s">
         <v>2369</v>
       </c>
       <c r="M266" t="s">
@@ -35092,7 +36030,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="267" spans="1:27">
+    <row r="267" spans="1:27" ht="19.95" customHeight="1">
       <c r="A267">
         <v>266</v>
       </c>
@@ -35108,7 +36046,7 @@
       <c r="E267" t="s">
         <v>502</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F267" s="14" t="s">
         <v>770</v>
       </c>
       <c r="G267" t="s">
@@ -35126,7 +36064,7 @@
       <c r="K267" t="s">
         <v>2105</v>
       </c>
-      <c r="L267" t="s">
+      <c r="L267" s="3" t="s">
         <v>2370</v>
       </c>
       <c r="M267" t="s">
@@ -35175,7 +36113,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="268" spans="1:27">
+    <row r="268" spans="1:27" ht="19.95" customHeight="1">
       <c r="A268">
         <v>267</v>
       </c>
@@ -35191,7 +36129,7 @@
       <c r="E268" t="s">
         <v>503</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F268" s="14" t="s">
         <v>771</v>
       </c>
       <c r="G268" t="s">
@@ -35209,7 +36147,7 @@
       <c r="K268" t="s">
         <v>2106</v>
       </c>
-      <c r="L268" t="s">
+      <c r="L268" s="3" t="s">
         <v>2371</v>
       </c>
       <c r="M268" t="s">
@@ -35258,7 +36196,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="269" spans="1:27">
+    <row r="269" spans="1:27" ht="19.95" customHeight="1">
       <c r="A269">
         <v>268</v>
       </c>
@@ -35274,7 +36212,7 @@
       <c r="E269" t="s">
         <v>504</v>
       </c>
-      <c r="F269" t="s">
+      <c r="F269" s="14" t="s">
         <v>772</v>
       </c>
       <c r="G269" t="s">
@@ -35292,7 +36230,7 @@
       <c r="K269" t="s">
         <v>2107</v>
       </c>
-      <c r="L269" t="s">
+      <c r="L269" s="3" t="s">
         <v>2372</v>
       </c>
       <c r="M269" t="s">
@@ -35341,7 +36279,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="270" spans="1:27">
+    <row r="270" spans="1:27" ht="19.95" customHeight="1">
       <c r="A270">
         <v>269</v>
       </c>
@@ -35357,7 +36295,7 @@
       <c r="E270" t="s">
         <v>505</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F270" s="14" t="s">
         <v>773</v>
       </c>
       <c r="G270" t="s">
@@ -35375,7 +36313,7 @@
       <c r="K270" t="s">
         <v>2108</v>
       </c>
-      <c r="L270" t="s">
+      <c r="L270" s="3" t="s">
         <v>2373</v>
       </c>
       <c r="M270" t="s">
@@ -35424,7 +36362,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="271" spans="1:27">
+    <row r="271" spans="1:27" ht="19.95" customHeight="1">
       <c r="A271">
         <v>270</v>
       </c>
@@ -35440,7 +36378,7 @@
       <c r="E271" t="s">
         <v>506</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F271" s="14" t="s">
         <v>774</v>
       </c>
       <c r="G271" t="s">
@@ -35458,7 +36396,7 @@
       <c r="K271" t="s">
         <v>2109</v>
       </c>
-      <c r="L271" t="s">
+      <c r="L271" s="3" t="s">
         <v>2374</v>
       </c>
       <c r="M271" t="s">
@@ -35507,7 +36445,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="272" spans="1:27">
+    <row r="272" spans="1:27" ht="19.95" customHeight="1">
       <c r="A272">
         <v>271</v>
       </c>
@@ -35523,7 +36461,7 @@
       <c r="E272" t="s">
         <v>507</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F272" s="14" t="s">
         <v>775</v>
       </c>
       <c r="G272" t="s">
@@ -35541,7 +36479,7 @@
       <c r="K272" t="s">
         <v>2110</v>
       </c>
-      <c r="L272" t="s">
+      <c r="L272" s="3" t="s">
         <v>2375</v>
       </c>
       <c r="M272" t="s">
@@ -35588,6 +36526,911 @@
       </c>
       <c r="AA272" t="s">
         <v>4104</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AE272" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE44E3EF-EF84-4E1E-AF06-E406F272A7E9}">
+  <dimension ref="A1:AG73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="43.44140625" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="28.8">
+      <c r="A1" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4200</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4202</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4203</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4204</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="43.2">
+      <c r="A2" s="3" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4206</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4208</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4209</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4211</v>
+      </c>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4212</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4213</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4215</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4217</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4218</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4221</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="C8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4223</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>4226</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4228</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="C11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>4231</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="C12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="C13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4234</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="C14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="C15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4237</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="C16" s="7" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4240</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4242</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4244</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4246</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4248</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="7" t="s">
+        <v>4250</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4251</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4253</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>4255</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>4263</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>4264</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>4266</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="C60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="C61" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="C64" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="H73" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA39F3F-986C-4414-A171-61C36ED28B2C}">
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="10">
+        <v>271</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>2110</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>2375</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>2378</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>2482</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>2751</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>3018</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>3022</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>3391</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>3393</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>3394</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>3665</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>3933</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>4196</v>
+      </c>
+      <c r="X1" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>4197</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BDC270-8BB5-4346-8D16-8D800F0504A4}">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>4302</v>
       </c>
     </row>
   </sheetData>

--- a/book/DATA/AICM_Cognates_Master.xlsx
+++ b/book/DATA/AICM_Cognates_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\aimoralcode-core\book\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A5104C-200C-49C3-8CE3-E6F4AB9698BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19ABD8C-E26F-4A7F-B37F-6A37F3D99372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13634,7 +13634,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13943,7 +13943,7 @@
   <dimension ref="A1:AE272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F160" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -13955,7 +13955,9 @@
     <col min="6" max="6" width="175.33203125" style="14" customWidth="1"/>
     <col min="7" max="11" width="20.77734375" customWidth="1"/>
     <col min="12" max="12" width="82.44140625" style="3" customWidth="1"/>
-    <col min="13" max="27" width="20.77734375" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" customWidth="1"/>
+    <col min="14" max="14" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.95" customHeight="1">
